--- a/data_Elife_2019.xlsx
+++ b/data_Elife_2019.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="UCL &amp; NIMR adult chimeras data" sheetId="1" state="visible" r:id="rId2"/>
@@ -15,7 +15,7 @@
     <sheet name="Data used for fitting spline to chimerism source" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'Data used for fitting spline to chimerism source'!$A:$A</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">#REF!</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1023" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1024" uniqueCount="24">
   <si>
     <t xml:space="preserve">Location and mouse type</t>
   </si>
@@ -105,13 +105,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.00E+00"/>
     <numFmt numFmtId="166" formatCode="0.00"/>
-    <numFmt numFmtId="167" formatCode="@"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -136,6 +135,20 @@
     <font>
       <b val="true"/>
       <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -168,7 +181,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -177,12 +190,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFE0EFD4"/>
         <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -190,8 +209,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="20">
+  <cellStyleXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -215,8 +249,11 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -225,7 +262,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -237,7 +274,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -249,7 +286,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -257,11 +294,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -273,42 +310,47 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -326,7 +368,7 @@
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FFB2B2B2"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
@@ -378,10 +420,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M116"/>
+  <dimension ref="A1:M117"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K13" activeCellId="0" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -475,13 +517,13 @@
         <v>4940</v>
       </c>
       <c r="K2" s="5" t="n">
-        <v>0.0493674608498532</v>
+        <v>0.0487187435498701</v>
       </c>
       <c r="L2" s="5" t="n">
-        <v>0.00560040418272092</v>
+        <v>0.00971964489482908</v>
       </c>
       <c r="M2" s="5" t="n">
-        <v>0.00268930071201637</v>
+        <v>0.00276580341054445</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -516,13 +558,13 @@
         <v>10740</v>
       </c>
       <c r="K3" s="5" t="n">
-        <v>0.0774028615212752</v>
+        <v>0.0760825408494213</v>
       </c>
       <c r="L3" s="5" t="n">
-        <v>0.0227083908687436</v>
+        <v>0.0177331680576093</v>
       </c>
       <c r="M3" s="5" t="n">
-        <v>0.00439976158559967</v>
+        <v>0.0063518514225174</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -557,13 +599,13 @@
         <v>130900</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>0.261872649461808</v>
+        <v>0.282843180713052</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>0.0803017122471116</v>
+        <v>0.102575063549203</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>0.0280282738695359</v>
+        <v>0.0349213978137969</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -598,13 +640,13 @@
         <v>58500</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.138585968738641</v>
+        <v>0.151071551174538</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.0334484098296967</v>
+        <v>0.0441430241404264</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.00647875408084471</v>
+        <v>0.012105761304308</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -639,13 +681,13 @@
         <v>100400</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.199104597748293</v>
+        <v>0.216530210417784</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.0411355549185001</v>
+        <v>0.0545645757645175</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.0190502093483166</v>
+        <v>0.0247962472403056</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -680,13 +722,13 @@
         <v>81000</v>
       </c>
       <c r="K7" s="5" t="n">
-        <v>0.256003051718599</v>
+        <v>0.281702898550725</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>0.0658651747292268</v>
+        <v>0.0884272110417149</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>0.0288771389483659</v>
+        <v>0.0389895619226864</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -721,13 +763,13 @@
         <v>113700</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.420968387354941</v>
+        <v>0.430453061089072</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.121442189016069</v>
+        <v>0.136647421269992</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.0531766146871202</v>
+        <v>0.0679220000401169</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -762,13 +804,13 @@
         <v>160800</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.500067723147773</v>
+        <v>0.513357008030201</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.203354209965918</v>
+        <v>0.196892467768375</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.11215706054972</v>
+        <v>0.128495831296886</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -803,13 +845,13 @@
         <v>548000</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>0.544726312818554</v>
+        <v>0.541674704844935</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>0.271809947560781</v>
+        <v>0.272551035678304</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>0.103509586329517</v>
+        <v>0.113212949194404</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -844,13 +886,13 @@
         <v>44970</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.890138725196448</v>
+        <v>0.634191021052335</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.225555862296518</v>
+        <v>0.219575612620384</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.215658882762892</v>
+        <v>0.177456254638322</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -885,13 +927,13 @@
         <v>466000</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.598881546351719</v>
+        <v>0.596607993723013</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.233435006399956</v>
+        <v>0.246283555500952</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.103871287456567</v>
+        <v>0.124862393500322</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -926,13 +968,13 @@
         <v>835000</v>
       </c>
       <c r="K13" s="5" t="n">
-        <v>0.671138176144244</v>
+        <v>0.664068762803955</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>0.239363409873119</v>
+        <v>0.246191831268832</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>0.119731272590505</v>
+        <v>0.134107752763803</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -967,13 +1009,13 @@
         <v>715000</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.669397120636789</v>
+        <v>0.667498121712998</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.303464914532108</v>
+        <v>0.308763382234365</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.154323432343234</v>
+        <v>0.16639111821576</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1008,13 +1050,13 @@
         <v>682000</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.572590245417832</v>
+        <v>0.56712413332412</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.204900889018528</v>
+        <v>0.212389333910319</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.0973732108385198</v>
+        <v>0.112203022467979</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1049,13 +1091,13 @@
         <v>1225000</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>0.646591703728567</v>
+        <v>0.647323544802536</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>0.315815760266371</v>
+        <v>0.319898342587567</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>0.155458778647367</v>
+        <v>0.178581995212351</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1090,13 +1132,13 @@
         <v>1566000</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.768244904433342</v>
+        <v>0.774261782398069</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.378443734952004</v>
+        <v>0.408299315546019</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.190495196026772</v>
+        <v>0.221582500990827</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1131,13 +1173,13 @@
         <v>2115000</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.759898336047019</v>
+        <v>0.760803808622005</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.404642353379522</v>
+        <v>0.404297582638148</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.189189955217959</v>
+        <v>0.218973389559401</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1172,13 +1214,13 @@
         <v>1793000</v>
       </c>
       <c r="K19" s="5" t="n">
-        <v>0.76410636302885</v>
+        <v>0.765800274561706</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>0.436685921165033</v>
+        <v>0.436674163168186</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>0.197306156999759</v>
+        <v>0.212954385954606</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1213,13 +1255,13 @@
         <v>1538000</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.747165264588643</v>
+        <v>0.725658372573182</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.329482672024108</v>
+        <v>0.334780506817743</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.169023316789962</v>
+        <v>0.187544303667485</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1254,13 +1296,13 @@
         <v>1196000</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.839841042465692</v>
+        <v>0.839974154641395</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.434259319497755</v>
+        <v>0.440459572054878</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.239376681894987</v>
+        <v>0.249316256420519</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1295,13 +1337,13 @@
         <v>1327000</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>0.676115241635689</v>
+        <v>0.649794161676647</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>0.345661672908865</v>
+        <v>0.359729219143577</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>0.232638229146874</v>
+        <v>0.286419362265454</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1336,13 +1378,13 @@
         <v>1325000</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.964516129032259</v>
+        <v>0.9351403678606</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.520551253818286</v>
+        <v>0.533787626237866</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.389744995887031</v>
+        <v>0.406939220617364</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1377,13 +1419,13 @@
         <v>2099000</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.956366215889881</v>
+        <v>0.937660782527487</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.60792455731952</v>
+        <v>0.628520089548722</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.467053401537055</v>
+        <v>0.479330425776298</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1418,13 +1460,13 @@
         <v>1606000</v>
       </c>
       <c r="K25" s="5" t="n">
-        <v>0.72985624463341</v>
+        <v>0.723254575107156</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>0.391865203948693</v>
+        <v>0.396859467655393</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>0.263715116453343</v>
+        <v>0.274033869062243</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1459,13 +1501,13 @@
         <v>963000</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.779535352132242</v>
+        <v>0.754103566194431</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.376778656126483</v>
+        <v>0.359750267169132</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.285563528915153</v>
+        <v>0.283806707910235</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1500,13 +1542,13 @@
         <v>3764000</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.767294113837834</v>
+        <v>0.736809331837434</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.52221259625297</v>
+        <v>0.497272695688427</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.482577251808021</v>
+        <v>0.474098205144837</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1541,13 +1583,13 @@
         <v>3332000</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>0.964884142930418</v>
+        <v>0.949409123364667</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>0.689233869121217</v>
+        <v>0.676967661269814</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>0.484555053329283</v>
+        <v>0.490663952800313</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1582,13 +1624,13 @@
         <v>436210.885714286</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.5723793795344</v>
+        <v>0.569301307554646</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>0.241764501758123</v>
+        <v>0.257096942366495</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>0.159246391018256</v>
+        <v>0.181311156422016</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1623,13 +1665,13 @@
         <v>601761.06613033</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.680177427838404</v>
+        <v>0.681686031864381</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>0.361716762103071</v>
+        <v>0.372997405691004</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>0.223104417456781</v>
+        <v>0.248509718544452</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1664,13 +1706,13 @@
         <v>327968.179318449</v>
       </c>
       <c r="K31" s="5" t="n">
-        <v>0.595779289778796</v>
+        <v>0.61053135822865</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>0.259618496915548</v>
+        <v>0.266060342954645</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>0.133646604216841</v>
+        <v>0.181986510973197</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1705,13 +1747,13 @@
         <v>563921.948790896</v>
       </c>
       <c r="K32" s="5" t="n">
-        <v>0.678927410665982</v>
+        <v>0.675947855172965</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>0.372818449747156</v>
+        <v>0.378408512006873</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>0.28358520057622</v>
+        <v>0.311716338866552</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1746,13 +1788,13 @@
         <v>701446.504120879</v>
       </c>
       <c r="K33" s="5" t="n">
-        <v>0.679600884831903</v>
+        <v>0.694414639477921</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>0.421754740076679</v>
+        <v>0.427962924055012</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>0.231110958775806</v>
+        <v>0.260883301294304</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1787,13 +1829,13 @@
         <v>543903.260147602</v>
       </c>
       <c r="K34" s="5" t="n">
-        <v>0.704502527020291</v>
+        <v>0.707976347226216</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>0.487594056487486</v>
+        <v>0.480471147148366</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>0.313887923811431</v>
+        <v>0.308364695218827</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1828,13 +1870,13 @@
         <v>479572.076941926</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>0.79379721411025</v>
+        <v>0.777403440925026</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>0.466706527606141</v>
+        <v>0.479892040818399</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>0.299572978596263</v>
+        <v>0.312562972483445</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1869,13 +1911,13 @@
         <v>3235852.64863551</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>0.780199596832077</v>
+        <v>0.785082398676836</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>0.635094730212051</v>
+        <v>0.606907823132829</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>0.431718177738955</v>
+        <v>0.450465076035414</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1910,13 +1952,13 @@
         <v>3584377.93615676</v>
       </c>
       <c r="K37" s="5" t="n">
-        <v>0.839992933617587</v>
+        <v>0.848777666193988</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>0.680252285464583</v>
+        <v>0.649579916195009</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>0.454348483002949</v>
+        <v>0.46102724368523</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1951,13 +1993,13 @@
         <v>2497956.1591403</v>
       </c>
       <c r="K38" s="5" t="n">
-        <v>0.857475746670229</v>
+        <v>0.860042491290216</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>0.746003843823373</v>
+        <v>0.740004955565607</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>0.520190336195675</v>
+        <v>0.53047991339185</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1992,13 +2034,13 @@
         <v>1905973.13619122</v>
       </c>
       <c r="K39" s="5" t="n">
-        <v>0.909630213434017</v>
+        <v>0.896554123861077</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>0.688564930984049</v>
+        <v>0.70437755961107</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>0.544981685701783</v>
+        <v>0.552916452770635</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2033,13 +2075,13 @@
         <v>1524266.48704172</v>
       </c>
       <c r="K40" s="5" t="n">
-        <v>0.865053391473999</v>
+        <v>0.865196892305602</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>0.712424697787706</v>
+        <v>0.708260170542334</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>0.467679477709564</v>
+        <v>0.469130065069476</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2074,13 +2116,13 @@
         <v>1665841.55480034</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>0.972815268215884</v>
+        <v>0.962394888436455</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>0.757971039272603</v>
+        <v>0.759568142858</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>0.473954240530704</v>
+        <v>0.487569803702596</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2115,13 +2157,13 @@
         <v>2060791.89458912</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>0.948001237251862</v>
+        <v>0.94748837002031</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>0.793717393040194</v>
+        <v>0.787454592914576</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>0.68196544244547</v>
+        <v>0.665932592705623</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2156,13 +2198,13 @@
         <v>2029565.91218516</v>
       </c>
       <c r="K43" s="5" t="n">
-        <v>0.936791846981275</v>
+        <v>0.931771686658137</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>0.788780236220529</v>
+        <v>0.787117399070744</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>0.557810761897339</v>
+        <v>0.555574461893299</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2197,13 +2239,13 @@
         <v>457208.305135388</v>
       </c>
       <c r="K44" s="5" t="n">
-        <v>0.816252399290412</v>
+        <v>0.83019621649506</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>0.428394503862984</v>
+        <v>0.45247538359179</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>0.18197848293494</v>
+        <v>0.237646278808914</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2238,13 +2280,13 @@
         <v>328398.305807622</v>
       </c>
       <c r="K45" s="5" t="n">
-        <v>0.572534646352711</v>
+        <v>0.602340377515481</v>
       </c>
       <c r="L45" s="5" t="n">
-        <v>0.357774417228491</v>
+        <v>0.384761250743791</v>
       </c>
       <c r="M45" s="5" t="n">
-        <v>0.110037254647564</v>
+        <v>0.154550923772265</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2279,13 +2321,13 @@
         <v>185648.56964657</v>
       </c>
       <c r="K46" s="5" t="n">
-        <v>0.492297742253978</v>
+        <v>0.51188754915834</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>0.288719400303274</v>
+        <v>0.314299079699694</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>0.153832315680562</v>
+        <v>0.173564277204357</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2320,13 +2362,13 @@
         <v>367479.850429832</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>0.737233228190592</v>
+        <v>0.751093411405784</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>0.482562780152869</v>
+        <v>0.508842135553136</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>0.255517678788247</v>
+        <v>0.295530858084276</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2361,13 +2403,13 @@
         <v>432426.13567291</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>0.778455109985197</v>
+        <v>0.776151153631466</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>0.548255832377109</v>
+        <v>0.55171925245828</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>0.337439697884527</v>
+        <v>0.378836367840497</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2402,13 +2444,13 @@
         <v>405902.773513753</v>
       </c>
       <c r="K49" s="5" t="n">
-        <v>0.824440743598216</v>
+        <v>0.798784861729319</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>0.550570611464466</v>
+        <v>0.567680262440511</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>0.335708518259362</v>
+        <v>0.363659185991385</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2443,13 +2485,13 @@
         <v>1192668.18971166</v>
       </c>
       <c r="K50" s="5" t="n">
-        <v>0.956435039805503</v>
+        <v>0.948446307382966</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>0.851901212846939</v>
+        <v>0.854183695706733</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>0.649959536579622</v>
+        <v>0.653519312676486</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2484,13 +2526,13 @@
         <v>1158536.75352853</v>
       </c>
       <c r="K51" s="5" t="n">
-        <v>0.938088984549882</v>
+        <v>0.928365336997366</v>
       </c>
       <c r="L51" s="5" t="n">
-        <v>0.846542539868081</v>
+        <v>0.831013306009459</v>
       </c>
       <c r="M51" s="5" t="n">
-        <v>0.654658177555373</v>
+        <v>0.668680746753272</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2525,13 +2567,13 @@
         <v>11475.7565535878</v>
       </c>
       <c r="K52" s="5" t="n">
-        <v>0.110219736073416</v>
+        <v>0.105431029256308</v>
       </c>
       <c r="L52" s="5" t="n">
-        <v>0.046754058949181</v>
+        <v>0.0436466876735239</v>
       </c>
       <c r="M52" s="5" t="n">
-        <v>0.00900319958193444</v>
+        <v>0.00936003419534599</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2566,13 +2608,13 @@
         <v>19727.007788162</v>
       </c>
       <c r="K53" s="5" t="n">
-        <v>0.0945114870012628</v>
+        <v>0.0925975516713865</v>
       </c>
       <c r="L53" s="5" t="n">
-        <v>0.0573795027892311</v>
+        <v>0.0509823561080521</v>
       </c>
       <c r="M53" s="5" t="n">
-        <v>0.00951918080824101</v>
+        <v>0.00984164027727939</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2607,13 +2649,13 @@
         <v>139481.068322981</v>
       </c>
       <c r="K54" s="5" t="n">
-        <v>0.454044750460273</v>
+        <v>0.454143101247907</v>
       </c>
       <c r="L54" s="5" t="n">
-        <v>0.224054695531794</v>
+        <v>0.228234706244601</v>
       </c>
       <c r="M54" s="5" t="n">
-        <v>0.121528231337768</v>
+        <v>0.127590625707469</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2648,13 +2690,13 @@
         <v>153045.938461538</v>
       </c>
       <c r="K55" s="5" t="n">
-        <v>0.398997526804835</v>
+        <v>0.3970886563411</v>
       </c>
       <c r="L55" s="5" t="n">
-        <v>0.144749384456279</v>
+        <v>0.147269967277519</v>
       </c>
       <c r="M55" s="5" t="n">
-        <v>0.0725380220781677</v>
+        <v>0.0733467131392091</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2689,13 +2731,13 @@
         <v>79638.7502173283</v>
       </c>
       <c r="K56" s="5" t="n">
-        <v>0.36175494441228</v>
+        <v>0.359358079118717</v>
       </c>
       <c r="L56" s="5" t="n">
-        <v>0.124688044269053</v>
+        <v>0.130728230299866</v>
       </c>
       <c r="M56" s="5" t="n">
-        <v>0.0772466931157855</v>
+        <v>0.0710594530194703</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2730,13 +2772,13 @@
         <v>1683302.93444593</v>
       </c>
       <c r="K57" s="5" t="n">
-        <v>0.932349794060351</v>
+        <v>0.918013818189283</v>
       </c>
       <c r="L57" s="5" t="n">
-        <v>0.847500543481798</v>
+        <v>0.841766020969694</v>
       </c>
       <c r="M57" s="5" t="n">
-        <v>0.642231682178905</v>
+        <v>0.656519445110834</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2771,13 +2813,13 @@
         <v>1351404.33333333</v>
       </c>
       <c r="K58" s="5" t="n">
-        <v>0.990346816506323</v>
+        <v>0.984617994683962</v>
       </c>
       <c r="L58" s="5" t="n">
-        <v>0.950307179495306</v>
+        <v>0.922893122229884</v>
       </c>
       <c r="M58" s="5" t="n">
-        <v>0.760632403997295</v>
+        <v>0.774689463735949</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2812,13 +2854,13 @@
         <v>1805929.65034965</v>
       </c>
       <c r="K59" s="5" t="n">
-        <v>0.92656395421312</v>
+        <v>0.916245552225765</v>
       </c>
       <c r="L59" s="5" t="n">
-        <v>0.821260959778676</v>
+        <v>0.827106751801006</v>
       </c>
       <c r="M59" s="5" t="n">
-        <v>0.643367793881485</v>
+        <v>0.668091119265162</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2853,13 +2895,13 @@
         <v>1816198.82583653</v>
       </c>
       <c r="K60" s="5" t="n">
-        <v>0.971840733860401</v>
+        <v>0.968743993245793</v>
       </c>
       <c r="L60" s="5" t="n">
-        <v>0.872241376658532</v>
+        <v>0.877155518488035</v>
       </c>
       <c r="M60" s="5" t="n">
-        <v>0.667491493062879</v>
+        <v>0.706088999111408</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2894,13 +2936,13 @@
         <v>2090491.76258327</v>
       </c>
       <c r="K61" s="5" t="n">
-        <v>0.975921225349087</v>
+        <v>0.965968483581161</v>
       </c>
       <c r="L61" s="5" t="n">
-        <v>0.905708754461661</v>
+        <v>0.899130447047142</v>
       </c>
       <c r="M61" s="5" t="n">
-        <v>0.694238401337046</v>
+        <v>0.707752071455608</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2935,13 +2977,13 @@
         <v>2541259.42089471</v>
       </c>
       <c r="K62" s="5" t="n">
-        <v>0.939135211960421</v>
+        <v>0.931819857865677</v>
       </c>
       <c r="L62" s="5" t="n">
-        <v>0.819601594911232</v>
+        <v>0.806380691308157</v>
       </c>
       <c r="M62" s="5" t="n">
-        <v>0.614461835714397</v>
+        <v>0.627508918888242</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2976,13 +3018,13 @@
         <v>1691317.95383668</v>
       </c>
       <c r="K63" s="5" t="n">
-        <v>0.935913157005338</v>
+        <v>0.924818131592621</v>
       </c>
       <c r="L63" s="5" t="n">
-        <v>0.836836814217437</v>
+        <v>0.82116791556124</v>
       </c>
       <c r="M63" s="5" t="n">
-        <v>0.615543278849591</v>
+        <v>0.636741599784256</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3017,13 +3059,13 @@
         <v>2162698.93643437</v>
       </c>
       <c r="K64" s="5" t="n">
-        <v>0.954484554171613</v>
+        <v>0.951183856921986</v>
       </c>
       <c r="L64" s="5" t="n">
-        <v>0.874419176296689</v>
+        <v>0.844665877427866</v>
       </c>
       <c r="M64" s="5" t="n">
-        <v>0.720137126839728</v>
+        <v>0.695516329941686</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3058,13 +3100,13 @@
         <v>2818431.36391437</v>
       </c>
       <c r="K65" s="5" t="n">
-        <v>0.941440480893077</v>
+        <v>0.933501976136773</v>
       </c>
       <c r="L65" s="5" t="n">
-        <v>0.869789507074227</v>
+        <v>0.83627588824477</v>
       </c>
       <c r="M65" s="5" t="n">
-        <v>0.62498121407845</v>
+        <v>0.659639272140792</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3099,13 +3141,13 @@
         <v>2745247.46851885</v>
       </c>
       <c r="K66" s="5" t="n">
-        <v>0.971134959428286</v>
+        <v>0.964942689525108</v>
       </c>
       <c r="L66" s="5" t="n">
-        <v>0.898671997902465</v>
+        <v>0.87758075826816</v>
       </c>
       <c r="M66" s="5" t="n">
-        <v>0.686623641468788</v>
+        <v>0.704969126297682</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3140,13 +3182,13 @@
         <v>1857924.63659531</v>
       </c>
       <c r="K67" s="5" t="n">
-        <v>0.963361913892141</v>
+        <v>0.954698460128455</v>
       </c>
       <c r="L67" s="5" t="n">
-        <v>0.88117797125286</v>
+        <v>0.878834552194561</v>
       </c>
       <c r="M67" s="5" t="n">
-        <v>0.691618001119218</v>
+        <v>0.715785099618725</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3181,13 +3223,13 @@
         <v>1882228.25609292</v>
       </c>
       <c r="K68" s="5" t="n">
-        <v>0.870072713435471</v>
+        <v>0.854308074566276</v>
       </c>
       <c r="L68" s="5" t="n">
-        <v>0.829934943796929</v>
+        <v>0.787926253942679</v>
       </c>
       <c r="M68" s="5" t="n">
-        <v>0.592510690440793</v>
+        <v>0.622109397750326</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3222,13 +3264,13 @@
         <v>1615254.01656046</v>
       </c>
       <c r="K69" s="5" t="n">
-        <v>0.947878457941292</v>
+        <v>0.937869794928035</v>
       </c>
       <c r="L69" s="5" t="n">
-        <v>0.86961363970292</v>
+        <v>0.830544954873549</v>
       </c>
       <c r="M69" s="5" t="n">
-        <v>0.641919456056741</v>
+        <v>0.671283130992431</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3263,13 +3305,13 @@
         <v>2664619.63691486</v>
       </c>
       <c r="K70" s="5" t="n">
-        <v>0.939343745459623</v>
+        <v>0.921707095720883</v>
       </c>
       <c r="L70" s="5" t="n">
-        <v>0.824794872841572</v>
+        <v>0.800926419532571</v>
       </c>
       <c r="M70" s="5" t="n">
-        <v>0.651554400717598</v>
+        <v>0.690274431667727</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3304,13 +3346,13 @@
         <v>1999999.59922431</v>
       </c>
       <c r="K71" s="5" t="n">
-        <v>0.927635410020061</v>
+        <v>0.915994646505321</v>
       </c>
       <c r="L71" s="5" t="n">
-        <v>0.836553918685386</v>
+        <v>0.823019458833908</v>
       </c>
       <c r="M71" s="5" t="n">
-        <v>0.624552359229651</v>
+        <v>0.646981937804074</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3345,13 +3387,13 @@
         <v>1483116.77955454</v>
       </c>
       <c r="K72" s="5" t="n">
-        <v>0.924409423180241</v>
+        <v>0.916605199704634</v>
       </c>
       <c r="L72" s="5" t="n">
-        <v>0.785415040922154</v>
+        <v>0.787723668881241</v>
       </c>
       <c r="M72" s="5" t="n">
-        <v>0.571773414869649</v>
+        <v>0.611256528899908</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3386,13 +3428,13 @@
         <v>2064795.33891974</v>
       </c>
       <c r="K73" s="5" t="n">
-        <v>0.965848258557829</v>
+        <v>0.959473233193736</v>
       </c>
       <c r="L73" s="5" t="n">
-        <v>0.833277640918845</v>
+        <v>0.838904887237663</v>
       </c>
       <c r="M73" s="5" t="n">
-        <v>0.655491136726998</v>
+        <v>0.689195744556914</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3427,13 +3469,13 @@
         <v>2155203.76328175</v>
       </c>
       <c r="K74" s="5" t="n">
-        <v>0.978483100906053</v>
+        <v>0.963436308041796</v>
       </c>
       <c r="L74" s="5" t="n">
-        <v>0.866968860440455</v>
+        <v>0.850601680130472</v>
       </c>
       <c r="M74" s="5" t="n">
-        <v>0.662697771094054</v>
+        <v>0.690656547067603</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3468,13 +3510,13 @@
         <v>1945320.08417796</v>
       </c>
       <c r="K75" s="5" t="n">
-        <v>0.859814295577742</v>
+        <v>0.842500022533026</v>
       </c>
       <c r="L75" s="5" t="n">
-        <v>0.822884981822992</v>
+        <v>0.806862196500385</v>
       </c>
       <c r="M75" s="5" t="n">
-        <v>0.614531643785078</v>
+        <v>0.654238765279816</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3509,13 +3551,13 @@
         <v>1918856.50285529</v>
       </c>
       <c r="K76" s="5" t="n">
-        <v>1.02731635102704</v>
+        <v>1.01360179397676</v>
       </c>
       <c r="L76" s="5" t="n">
-        <v>0.936162508108945</v>
+        <v>0.909608205350456</v>
       </c>
       <c r="M76" s="5" t="n">
-        <v>0.72103324994645</v>
+        <v>0.762364103367086</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3550,13 +3592,13 @@
         <v>1873015.73763955</v>
       </c>
       <c r="K77" s="5" t="n">
-        <v>0.932325635123497</v>
+        <v>0.926761331207387</v>
       </c>
       <c r="L77" s="5" t="n">
-        <v>0.819896855656376</v>
+        <v>0.800360245307881</v>
       </c>
       <c r="M77" s="5" t="n">
-        <v>0.594425439677844</v>
+        <v>0.615653383648104</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3591,13 +3633,13 @@
         <v>1788717.58295185</v>
       </c>
       <c r="K78" s="5" t="n">
-        <v>0.908672467094844</v>
+        <v>0.889699517664089</v>
       </c>
       <c r="L78" s="5" t="n">
-        <v>0.763709178480432</v>
+        <v>0.759924677983998</v>
       </c>
       <c r="M78" s="5" t="n">
-        <v>0.641397767191046</v>
+        <v>0.640840726709065</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3632,13 +3674,13 @@
         <v>1618803.7973262</v>
       </c>
       <c r="K79" s="5" t="n">
-        <v>0.898768047768743</v>
+        <v>0.879657765479274</v>
       </c>
       <c r="L79" s="5" t="n">
-        <v>0.710188172901823</v>
+        <v>0.708696430388026</v>
       </c>
       <c r="M79" s="5" t="n">
-        <v>0.533696784034493</v>
+        <v>0.584981555096809</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3673,13 +3715,13 @@
         <v>1112699.2831744</v>
       </c>
       <c r="K80" s="5" t="n">
-        <v>0.94119023974431</v>
+        <v>0.918279107037706</v>
       </c>
       <c r="L80" s="5" t="n">
-        <v>0.814508495145631</v>
+        <v>0.813328083204111</v>
       </c>
       <c r="M80" s="5" t="n">
-        <v>0.596690843459183</v>
+        <v>0.634654589371731</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3714,13 +3756,13 @@
         <v>1799293.27941176</v>
       </c>
       <c r="K81" s="5" t="n">
-        <v>0.981750633415337</v>
+        <v>0.957573860213879</v>
       </c>
       <c r="L81" s="5" t="n">
-        <v>0.822913722833027</v>
+        <v>0.830816001114075</v>
       </c>
       <c r="M81" s="5" t="n">
-        <v>0.721238723502987</v>
+        <v>0.742167058316384</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3755,13 +3797,13 @@
         <v>1237194.04845815</v>
       </c>
       <c r="K82" s="5" t="n">
-        <v>0.892371407716969</v>
+        <v>0.887979588466454</v>
       </c>
       <c r="L82" s="5" t="n">
-        <v>0.844973666132357</v>
+        <v>0.833660668594633</v>
       </c>
       <c r="M82" s="5" t="n">
-        <v>0.833795540920899</v>
+        <v>0.811246033227566</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3796,13 +3838,13 @@
         <v>1845966.14761064</v>
       </c>
       <c r="K83" s="5" t="n">
-        <v>0.995722902301737</v>
+        <v>0.979214878007628</v>
       </c>
       <c r="L83" s="5" t="n">
-        <v>0.877991867465551</v>
+        <v>0.873112208600178</v>
       </c>
       <c r="M83" s="5" t="n">
-        <v>0.661471831726857</v>
+        <v>0.706557045865187</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3837,13 +3879,13 @@
         <v>1427340.54386165</v>
       </c>
       <c r="K84" s="5" t="n">
-        <v>0.864107950016122</v>
+        <v>0.873234561147979</v>
       </c>
       <c r="L84" s="5" t="n">
-        <v>0.678497308744754</v>
+        <v>0.692267785535407</v>
       </c>
       <c r="M84" s="5" t="n">
-        <v>0.419287076412463</v>
+        <v>0.448979573706488</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3878,13 +3920,13 @@
         <v>2501881.71298989</v>
       </c>
       <c r="K85" s="5" t="n">
-        <v>0.857730543743465</v>
+        <v>0.858369396841448</v>
       </c>
       <c r="L85" s="5" t="n">
-        <v>0.72579792697291</v>
+        <v>0.721345512778823</v>
       </c>
       <c r="M85" s="5" t="n">
-        <v>0.520174242237665</v>
+        <v>0.518605357649161</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3919,13 +3961,13 @@
         <v>1045430.87947852</v>
       </c>
       <c r="K86" s="5" t="n">
-        <v>0.944545613379212</v>
+        <v>0.95745831483912</v>
       </c>
       <c r="L86" s="5" t="n">
-        <v>0.714046713528178</v>
+        <v>0.745299221896223</v>
       </c>
       <c r="M86" s="5" t="n">
-        <v>0.461944649217765</v>
+        <v>0.498996927795166</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3960,13 +4002,13 @@
         <v>1085500.92819615</v>
       </c>
       <c r="K87" s="5" t="n">
-        <v>0.92450856227859</v>
+        <v>0.911502730072595</v>
       </c>
       <c r="L87" s="5" t="n">
-        <v>0.655358635105694</v>
+        <v>0.677494113410318</v>
       </c>
       <c r="M87" s="5" t="n">
-        <v>0.447010452638408</v>
+        <v>0.461774428347761</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4001,13 +4043,13 @@
         <v>882681.532597003</v>
       </c>
       <c r="K88" s="5" t="n">
-        <v>0.88867038962213</v>
+        <v>0.888719517056225</v>
       </c>
       <c r="L88" s="5" t="n">
-        <v>0.656861743341404</v>
+        <v>0.660085824121625</v>
       </c>
       <c r="M88" s="5" t="n">
-        <v>0.474103320493066</v>
+        <v>0.491857246595018</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4042,13 +4084,13 @@
         <v>2188894.07553038</v>
       </c>
       <c r="K89" s="5" t="n">
-        <v>0.82758034262237</v>
+        <v>0.838868327959004</v>
       </c>
       <c r="L89" s="5" t="n">
-        <v>0.621338081818463</v>
+        <v>0.647137962473825</v>
       </c>
       <c r="M89" s="5" t="n">
-        <v>0.481616449444265</v>
+        <v>0.512409391851628</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4083,13 +4125,13 @@
         <v>1217650.14088529</v>
       </c>
       <c r="K90" s="5" t="n">
-        <v>0.843143536006965</v>
+        <v>0.845268837026715</v>
       </c>
       <c r="L90" s="5" t="n">
-        <v>0.636964100534336</v>
+        <v>0.650721437782243</v>
       </c>
       <c r="M90" s="5" t="n">
-        <v>0.419291495745297</v>
+        <v>0.43887239641589</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4124,13 +4166,13 @@
         <v>716999.316239849</v>
       </c>
       <c r="K91" s="5" t="n">
-        <v>0.831223478296212</v>
+        <v>0.831892119066526</v>
       </c>
       <c r="L91" s="5" t="n">
-        <v>0.623184548736983</v>
+        <v>0.618044800296627</v>
       </c>
       <c r="M91" s="5" t="n">
-        <v>0.293934920770905</v>
+        <v>0.325227175208844</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4165,13 +4207,13 @@
         <v>1705046.21979745</v>
       </c>
       <c r="K92" s="5" t="n">
-        <v>0.926017332029625</v>
+        <v>0.92580707555537</v>
       </c>
       <c r="L92" s="5" t="n">
-        <v>0.732276461740928</v>
+        <v>0.745348874042537</v>
       </c>
       <c r="M92" s="5" t="n">
-        <v>0.402593255077324</v>
+        <v>0.436678548428764</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4206,13 +4248,13 @@
         <v>996250.627686933</v>
       </c>
       <c r="K93" s="5" t="n">
-        <v>0.972303836134174</v>
+        <v>0.963910340497639</v>
       </c>
       <c r="L93" s="5" t="n">
-        <v>0.763361540910538</v>
+        <v>0.735663661404735</v>
       </c>
       <c r="M93" s="5" t="n">
-        <v>0.443800489082107</v>
+        <v>0.50190367108508</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4247,13 +4289,13 @@
         <v>1500233.90672411</v>
       </c>
       <c r="K94" s="5" t="n">
-        <v>0.904326368630989</v>
+        <v>0.904606754269044</v>
       </c>
       <c r="L94" s="5" t="n">
-        <v>0.678204032318962</v>
+        <v>0.691255033892151</v>
       </c>
       <c r="M94" s="5" t="n">
-        <v>0.429116729009386</v>
+        <v>0.441983946702032</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4288,13 +4330,13 @@
         <v>235386.024451411</v>
       </c>
       <c r="K95" s="5" t="n">
-        <v>0.563886668443024</v>
+        <v>0.551512068724096</v>
       </c>
       <c r="L95" s="5" t="n">
-        <v>0.27341684890575</v>
+        <v>0.290918181068267</v>
       </c>
       <c r="M95" s="5" t="n">
-        <v>0.158750087186999</v>
+        <v>0.17619163551935</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4329,13 +4371,13 @@
         <v>576528.313186813</v>
       </c>
       <c r="K96" s="5" t="n">
-        <v>0.720931495563391</v>
+        <v>0.728624935813553</v>
       </c>
       <c r="L96" s="5" t="n">
-        <v>0.451853775589487</v>
+        <v>0.458105173286283</v>
       </c>
       <c r="M96" s="5" t="n">
-        <v>0.258131510458094</v>
+        <v>0.276105322641773</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4370,13 +4412,13 @@
         <v>573721.476555024</v>
       </c>
       <c r="K97" s="5" t="n">
-        <v>0.709432302616668</v>
+        <v>0.710885666970858</v>
       </c>
       <c r="L97" s="5" t="n">
-        <v>0.431158104759253</v>
+        <v>0.448110618779286</v>
       </c>
       <c r="M97" s="5" t="n">
-        <v>0.26628684756221</v>
+        <v>0.291629091038871</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4411,13 +4453,13 @@
         <v>912015.323308271</v>
       </c>
       <c r="K98" s="5" t="n">
-        <v>0.737952344813082</v>
+        <v>0.742615999160154</v>
       </c>
       <c r="L98" s="5" t="n">
-        <v>0.502854727146965</v>
+        <v>0.508302839762584</v>
       </c>
       <c r="M98" s="5" t="n">
-        <v>0.272068628279368</v>
+        <v>0.29769349593412</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4452,13 +4494,13 @@
         <v>472853.332967756</v>
       </c>
       <c r="K99" s="5" t="n">
-        <v>0.773458516927196</v>
+        <v>0.776987621501895</v>
       </c>
       <c r="L99" s="5" t="n">
-        <v>0.565332095437756</v>
+        <v>0.568613389345893</v>
       </c>
       <c r="M99" s="5" t="n">
-        <v>0.35755139607793</v>
+        <v>0.37668872664244</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4493,13 +4535,13 @@
         <v>424387.794923685</v>
       </c>
       <c r="K100" s="5" t="n">
-        <v>0.779466229584474</v>
+        <v>0.782743774821777</v>
       </c>
       <c r="L100" s="5" t="n">
-        <v>0.518837327924002</v>
+        <v>0.528641690585645</v>
       </c>
       <c r="M100" s="5" t="n">
-        <v>0.334097634973574</v>
+        <v>0.349741774837962</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4534,13 +4576,13 @@
         <v>771710.037702847</v>
       </c>
       <c r="K101" s="5" t="n">
-        <v>1.04130812807267</v>
+        <v>1.03023524866135</v>
       </c>
       <c r="L101" s="5" t="n">
-        <v>0.93250650987526</v>
+        <v>0.900301747794025</v>
       </c>
       <c r="M101" s="5" t="n">
-        <v>0.569274975519427</v>
+        <v>0.581279386923925</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4575,13 +4617,13 @@
         <v>1194189.23207154</v>
       </c>
       <c r="K102" s="5" t="n">
-        <v>0.92688773109607</v>
+        <v>0.920122640852324</v>
       </c>
       <c r="L102" s="5" t="n">
-        <v>0.773854981197871</v>
+        <v>0.765939031237483</v>
       </c>
       <c r="M102" s="5" t="n">
-        <v>0.587839232393714</v>
+        <v>0.59857270407584</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4616,13 +4658,13 @@
         <v>346461.495739054</v>
       </c>
       <c r="K103" s="5" t="n">
-        <v>0.852476858915676</v>
+        <v>0.830393536115361</v>
       </c>
       <c r="L103" s="5" t="n">
-        <v>0.756183615036483</v>
+        <v>0.696596324463464</v>
       </c>
       <c r="M103" s="5" t="n">
-        <v>0.538511452858347</v>
+        <v>0.558381517805823</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4657,13 +4699,13 @@
         <v>897048.611668467</v>
       </c>
       <c r="K104" s="5" t="n">
-        <v>0.958645009084654</v>
+        <v>0.932820115285106</v>
       </c>
       <c r="L104" s="5" t="n">
-        <v>0.705824227477151</v>
+        <v>0.702249643229376</v>
       </c>
       <c r="M104" s="5" t="n">
-        <v>0.516498295698478</v>
+        <v>0.560166485225224</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4698,13 +4740,13 @@
         <v>118802.041587213</v>
       </c>
       <c r="K105" s="5" t="n">
-        <v>0.325121657377082</v>
+        <v>0.335854508951821</v>
       </c>
       <c r="L105" s="5" t="n">
-        <v>0.104849423968258</v>
+        <v>0.125050983103651</v>
       </c>
       <c r="M105" s="5" t="n">
-        <v>0.0486014931438701</v>
+        <v>0.054847032030138</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4739,13 +4781,13 @@
         <v>108131.152415005</v>
       </c>
       <c r="K106" s="5" t="n">
-        <v>0.380586547630981</v>
+        <v>0.389232574731819</v>
       </c>
       <c r="L106" s="5" t="n">
-        <v>0.106671430929481</v>
+        <v>0.123926696524311</v>
       </c>
       <c r="M106" s="5" t="n">
-        <v>0.0586764989790592</v>
+        <v>0.0606432667497608</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4780,13 +4822,13 @@
         <v>126322.907569491</v>
       </c>
       <c r="K107" s="5" t="n">
-        <v>0.352731323165603</v>
+        <v>0.366424246649069</v>
       </c>
       <c r="L107" s="5" t="n">
-        <v>0.117047031283252</v>
+        <v>0.170654859140223</v>
       </c>
       <c r="M107" s="5" t="n">
-        <v>0.0798871062055041</v>
+        <v>0.0784796835412222</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4821,13 +4863,13 @@
         <v>262730.037005826</v>
       </c>
       <c r="K108" s="5" t="n">
-        <v>0.52637323610229</v>
+        <v>0.531664243724163</v>
       </c>
       <c r="L108" s="5" t="n">
-        <v>0.281417686503306</v>
+        <v>0.304699353580468</v>
       </c>
       <c r="M108" s="5" t="n">
-        <v>0.108804400882592</v>
+        <v>0.117871062488328</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4862,13 +4904,13 @@
         <v>266901.097139117</v>
       </c>
       <c r="K109" s="5" t="n">
-        <v>0.592856435166719</v>
+        <v>0.593878263907158</v>
       </c>
       <c r="L109" s="5" t="n">
-        <v>0.313038343558282</v>
+        <v>0.331019469323908</v>
       </c>
       <c r="M109" s="5" t="n">
-        <v>0.177565325547423</v>
+        <v>0.177824359398175</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4903,13 +4945,13 @@
         <v>271174.732613631</v>
       </c>
       <c r="K110" s="5" t="n">
-        <v>0.569857613075182</v>
+        <v>0.551179784910008</v>
       </c>
       <c r="L110" s="5" t="n">
-        <v>0.266793944419873</v>
+        <v>0.278826618879277</v>
       </c>
       <c r="M110" s="5" t="n">
-        <v>0.175637782447004</v>
+        <v>0.173026113431226</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4944,13 +4986,13 @@
         <v>1651516.38579222</v>
       </c>
       <c r="K111" s="5" t="n">
-        <v>1.00726854569351</v>
+        <v>1.00119058162133</v>
       </c>
       <c r="L111" s="5" t="n">
-        <v>0.855118449022974</v>
+        <v>0.847709036380016</v>
       </c>
       <c r="M111" s="5" t="n">
-        <v>0.617332395439188</v>
+        <v>0.632853114215023</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4985,13 +5027,13 @@
         <v>1320499.66388863</v>
       </c>
       <c r="K112" s="5" t="n">
-        <v>0.875775585898202</v>
+        <v>0.85856005881248</v>
       </c>
       <c r="L112" s="5" t="n">
-        <v>0.71647477686889</v>
+        <v>0.736017793372538</v>
       </c>
       <c r="M112" s="5" t="n">
-        <v>0.554658503032359</v>
+        <v>0.575536097365009</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5026,13 +5068,13 @@
         <v>998013.90596745</v>
       </c>
       <c r="K113" s="5" t="n">
-        <v>0.971806404083243</v>
+        <v>0.93174430647125</v>
       </c>
       <c r="L113" s="5" t="n">
-        <v>0.858393378773125</v>
+        <v>0.839056954497118</v>
       </c>
       <c r="M113" s="5" t="n">
-        <v>0.583038082000019</v>
+        <v>0.613689694138267</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5040,40 +5082,40 @@
         <v>14</v>
       </c>
       <c r="B114" s="1" t="n">
-        <v>192</v>
+        <v>330</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="D114" s="1" t="n">
-        <v>152</v>
+        <v>264</v>
       </c>
       <c r="E114" s="4" t="n">
-        <v>15817596.362069</v>
+        <v>8092915.19596732</v>
       </c>
       <c r="F114" s="4" t="n">
-        <v>389443.913793103</v>
+        <v>274219.569583553</v>
       </c>
       <c r="G114" s="4" t="n">
-        <v>2430328.5</v>
+        <v>1947682.70558777</v>
       </c>
       <c r="H114" s="4" t="n">
-        <v>13282278.2068966</v>
+        <v>5480086.54744333</v>
       </c>
       <c r="I114" s="4" t="n">
-        <v>265787.379310345</v>
+        <v>154603.084080127</v>
       </c>
       <c r="J114" s="4" t="n">
-        <v>1273536.82758621</v>
+        <v>922433.536636795</v>
       </c>
       <c r="K114" s="5" t="n">
-        <v>0.887963210159748</v>
+        <v>1.02508689319707</v>
       </c>
       <c r="L114" s="5" t="n">
-        <v>0.72260775455356</v>
+        <v>0.853489064688667</v>
       </c>
       <c r="M114" s="5" t="n">
-        <v>0.549335801335069</v>
+        <v>0.716960334043554</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5090,31 +5132,31 @@
         <v>152</v>
       </c>
       <c r="E115" s="4" t="n">
-        <v>15413338.8838378</v>
+        <v>15817596.362069</v>
       </c>
       <c r="F115" s="4" t="n">
-        <v>438047.583544021</v>
+        <v>389443.913793103</v>
       </c>
       <c r="G115" s="4" t="n">
-        <v>2336483.2909206</v>
+        <v>2430328.5</v>
       </c>
       <c r="H115" s="4" t="n">
-        <v>8304692.91797996</v>
+        <v>13282278.2068966</v>
       </c>
       <c r="I115" s="4" t="n">
-        <v>165523.520053317</v>
+        <v>265787.379310345</v>
       </c>
       <c r="J115" s="4" t="n">
-        <v>749703.01978276</v>
+        <v>1273536.82758621</v>
       </c>
       <c r="K115" s="5" t="n">
-        <v>0.864539506674389</v>
+        <v>0.887605995116923</v>
       </c>
       <c r="L115" s="5" t="n">
-        <v>0.593597861357423</v>
+        <v>0.721402390470064</v>
       </c>
       <c r="M115" s="5" t="n">
-        <v>0.502337328297935</v>
+        <v>0.553904217076591</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5122,40 +5164,81 @@
         <v>14</v>
       </c>
       <c r="B116" s="1" t="n">
-        <v>273</v>
+        <v>192</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>121</v>
+        <v>40</v>
       </c>
       <c r="D116" s="1" t="n">
         <v>152</v>
       </c>
       <c r="E116" s="4" t="n">
+        <v>15413338.8838378</v>
+      </c>
+      <c r="F116" s="4" t="n">
+        <v>438047.583544021</v>
+      </c>
+      <c r="G116" s="4" t="n">
+        <v>2336483.2909206</v>
+      </c>
+      <c r="H116" s="4" t="n">
+        <v>8304692.91797996</v>
+      </c>
+      <c r="I116" s="4" t="n">
+        <v>165523.520053317</v>
+      </c>
+      <c r="J116" s="4" t="n">
+        <v>749703.01978276</v>
+      </c>
+      <c r="K116" s="5" t="n">
+        <v>0.838789787428614</v>
+      </c>
+      <c r="L116" s="5" t="n">
+        <v>0.588253754373791</v>
+      </c>
+      <c r="M116" s="5" t="n">
+        <v>0.499519979568326</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B117" s="1" t="n">
+        <v>273</v>
+      </c>
+      <c r="C117" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="D117" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="E117" s="4" t="n">
         <v>8779121.32901807</v>
       </c>
-      <c r="F116" s="4" t="n">
+      <c r="F117" s="4" t="n">
         <v>276583.770908418</v>
       </c>
-      <c r="G116" s="4" t="n">
+      <c r="G117" s="4" t="n">
         <v>1980185.99674973</v>
       </c>
-      <c r="H116" s="4" t="n">
+      <c r="H117" s="4" t="n">
         <v>7591853.18205939</v>
       </c>
-      <c r="I116" s="4" t="n">
+      <c r="I117" s="4" t="n">
         <v>193626.795512084</v>
       </c>
-      <c r="J116" s="4" t="n">
+      <c r="J117" s="4" t="n">
         <v>1083939.26563502</v>
       </c>
-      <c r="K116" s="5" t="n">
-        <v>0.90060661177555</v>
-      </c>
-      <c r="L116" s="5" t="n">
-        <v>0.729283804952838</v>
-      </c>
-      <c r="M116" s="5" t="n">
-        <v>0.545648689182994</v>
+      <c r="K117" s="5" t="n">
+        <v>0.893941192965538</v>
+      </c>
+      <c r="L117" s="5" t="n">
+        <v>0.723687322980217</v>
+      </c>
+      <c r="M117" s="5" t="n">
+        <v>0.565862826216079</v>
       </c>
     </row>
   </sheetData>
@@ -16484,30 +16567,30 @@
   </sheetPr>
   <dimension ref="A1:D152"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F144" activeCellId="0" sqref="F144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16.81"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="14.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="22.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="21.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="16.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="20" width="16.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="20" width="24.59"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="21" t="s">
         <v>11</v>
       </c>
     </row>
@@ -16518,11 +16601,11 @@
       <c r="B2" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="C2" s="5" t="n">
-        <v>0.0493674608498532</v>
-      </c>
-      <c r="D2" s="5" t="n">
-        <v>0.00560040418272092</v>
+      <c r="C2" s="20" t="n">
+        <v>0.0487187435498701</v>
+      </c>
+      <c r="D2" s="20" t="n">
+        <v>0.00971964489482908</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16532,11 +16615,11 @@
       <c r="B3" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="C3" s="5" t="n">
-        <v>0.0774028615212752</v>
-      </c>
-      <c r="D3" s="5" t="n">
-        <v>0.0227083908687436</v>
+      <c r="C3" s="20" t="n">
+        <v>0.0760825408494213</v>
+      </c>
+      <c r="D3" s="20" t="n">
+        <v>0.0177331680576093</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16546,11 +16629,11 @@
       <c r="B4" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="C4" s="5" t="n">
-        <v>0.261872649461808</v>
-      </c>
-      <c r="D4" s="5" t="n">
-        <v>0.0803017122471116</v>
+      <c r="C4" s="20" t="n">
+        <v>0.282843180713052</v>
+      </c>
+      <c r="D4" s="20" t="n">
+        <v>0.102575063549203</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16560,11 +16643,11 @@
       <c r="B5" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="C5" s="5" t="n">
-        <v>0.138585968738641</v>
-      </c>
-      <c r="D5" s="5" t="n">
-        <v>0.0334484098296967</v>
+      <c r="C5" s="20" t="n">
+        <v>0.151071551174538</v>
+      </c>
+      <c r="D5" s="20" t="n">
+        <v>0.0441430241404264</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16574,11 +16657,11 @@
       <c r="B6" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="C6" s="5" t="n">
-        <v>0.199104597748293</v>
-      </c>
-      <c r="D6" s="5" t="n">
-        <v>0.0411355549185001</v>
+      <c r="C6" s="20" t="n">
+        <v>0.216530210417784</v>
+      </c>
+      <c r="D6" s="20" t="n">
+        <v>0.0545645757645175</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16588,11 +16671,11 @@
       <c r="B7" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="C7" s="5" t="n">
-        <v>0.256003051718599</v>
-      </c>
-      <c r="D7" s="5" t="n">
-        <v>0.0658651747292268</v>
+      <c r="C7" s="20" t="n">
+        <v>0.281702898550725</v>
+      </c>
+      <c r="D7" s="20" t="n">
+        <v>0.0884272110417149</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16602,11 +16685,11 @@
       <c r="B8" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="C8" s="5" t="n">
-        <v>0.420968387354941</v>
-      </c>
-      <c r="D8" s="5" t="n">
-        <v>0.121442189016069</v>
+      <c r="C8" s="20" t="n">
+        <v>0.430453061089072</v>
+      </c>
+      <c r="D8" s="20" t="n">
+        <v>0.136647421269992</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16616,11 +16699,11 @@
       <c r="B9" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="C9" s="5" t="n">
-        <v>0.500067723147773</v>
-      </c>
-      <c r="D9" s="5" t="n">
-        <v>0.203354209965918</v>
+      <c r="C9" s="20" t="n">
+        <v>0.513357008030201</v>
+      </c>
+      <c r="D9" s="20" t="n">
+        <v>0.196892467768375</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16630,11 +16713,11 @@
       <c r="B10" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="C10" s="5" t="n">
-        <v>0.544726312818554</v>
-      </c>
-      <c r="D10" s="5" t="n">
-        <v>0.271809947560781</v>
+      <c r="C10" s="20" t="n">
+        <v>0.541674704844935</v>
+      </c>
+      <c r="D10" s="20" t="n">
+        <v>0.272551035678304</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16644,11 +16727,11 @@
       <c r="B11" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="C11" s="5" t="n">
-        <v>0.890138725196448</v>
-      </c>
-      <c r="D11" s="5" t="n">
-        <v>0.225555862296518</v>
+      <c r="C11" s="20" t="n">
+        <v>0.634191021052335</v>
+      </c>
+      <c r="D11" s="20" t="n">
+        <v>0.219575612620384</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16658,11 +16741,11 @@
       <c r="B12" s="1" t="n">
         <v>84</v>
       </c>
-      <c r="C12" s="5" t="n">
-        <v>0.598881546351719</v>
-      </c>
-      <c r="D12" s="5" t="n">
-        <v>0.233435006399956</v>
+      <c r="C12" s="20" t="n">
+        <v>0.596607993723013</v>
+      </c>
+      <c r="D12" s="20" t="n">
+        <v>0.246283555500952</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16672,11 +16755,11 @@
       <c r="B13" s="1" t="n">
         <v>84</v>
       </c>
-      <c r="C13" s="5" t="n">
-        <v>0.671138176144244</v>
-      </c>
-      <c r="D13" s="5" t="n">
-        <v>0.239363409873119</v>
+      <c r="C13" s="20" t="n">
+        <v>0.664068762803955</v>
+      </c>
+      <c r="D13" s="20" t="n">
+        <v>0.246191831268832</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16686,11 +16769,11 @@
       <c r="B14" s="1" t="n">
         <v>84</v>
       </c>
-      <c r="C14" s="5" t="n">
-        <v>0.669397120636789</v>
-      </c>
-      <c r="D14" s="5" t="n">
-        <v>0.303464914532108</v>
+      <c r="C14" s="20" t="n">
+        <v>0.667498121712998</v>
+      </c>
+      <c r="D14" s="20" t="n">
+        <v>0.308763382234365</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16700,11 +16783,11 @@
       <c r="B15" s="1" t="n">
         <v>84</v>
       </c>
-      <c r="C15" s="5" t="n">
-        <v>0.572590245417832</v>
-      </c>
-      <c r="D15" s="5" t="n">
-        <v>0.204900889018528</v>
+      <c r="C15" s="20" t="n">
+        <v>0.56712413332412</v>
+      </c>
+      <c r="D15" s="20" t="n">
+        <v>0.212389333910319</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16714,11 +16797,11 @@
       <c r="B16" s="1" t="n">
         <v>112</v>
       </c>
-      <c r="C16" s="5" t="n">
-        <v>0.646591703728567</v>
-      </c>
-      <c r="D16" s="5" t="n">
-        <v>0.315815760266371</v>
+      <c r="C16" s="20" t="n">
+        <v>0.647323544802536</v>
+      </c>
+      <c r="D16" s="20" t="n">
+        <v>0.319898342587567</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16728,11 +16811,11 @@
       <c r="B17" s="1" t="n">
         <v>112</v>
       </c>
-      <c r="C17" s="5" t="n">
-        <v>0.768244904433342</v>
-      </c>
-      <c r="D17" s="5" t="n">
-        <v>0.378443734952004</v>
+      <c r="C17" s="20" t="n">
+        <v>0.774261782398069</v>
+      </c>
+      <c r="D17" s="20" t="n">
+        <v>0.408299315546019</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16742,11 +16825,11 @@
       <c r="B18" s="1" t="n">
         <v>112</v>
       </c>
-      <c r="C18" s="5" t="n">
-        <v>0.759898336047019</v>
-      </c>
-      <c r="D18" s="5" t="n">
-        <v>0.404642353379522</v>
+      <c r="C18" s="20" t="n">
+        <v>0.760803808622005</v>
+      </c>
+      <c r="D18" s="20" t="n">
+        <v>0.404297582638148</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16756,11 +16839,11 @@
       <c r="B19" s="1" t="n">
         <v>112</v>
       </c>
-      <c r="C19" s="5" t="n">
-        <v>0.76410636302885</v>
-      </c>
-      <c r="D19" s="5" t="n">
-        <v>0.436685921165033</v>
+      <c r="C19" s="20" t="n">
+        <v>0.765800274561706</v>
+      </c>
+      <c r="D19" s="20" t="n">
+        <v>0.436674163168186</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16770,11 +16853,11 @@
       <c r="B20" s="1" t="n">
         <v>140</v>
       </c>
-      <c r="C20" s="5" t="n">
-        <v>0.747165264588643</v>
-      </c>
-      <c r="D20" s="5" t="n">
-        <v>0.329482672024108</v>
+      <c r="C20" s="20" t="n">
+        <v>0.725658372573182</v>
+      </c>
+      <c r="D20" s="20" t="n">
+        <v>0.334780506817743</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16784,11 +16867,11 @@
       <c r="B21" s="1" t="n">
         <v>140</v>
       </c>
-      <c r="C21" s="5" t="n">
-        <v>0.839841042465692</v>
-      </c>
-      <c r="D21" s="5" t="n">
-        <v>0.434259319497755</v>
+      <c r="C21" s="20" t="n">
+        <v>0.839974154641395</v>
+      </c>
+      <c r="D21" s="20" t="n">
+        <v>0.440459572054878</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16798,11 +16881,11 @@
       <c r="B22" s="1" t="n">
         <v>203</v>
       </c>
-      <c r="C22" s="5" t="n">
-        <v>0.676115241635689</v>
-      </c>
-      <c r="D22" s="5" t="n">
-        <v>0.345661672908865</v>
+      <c r="C22" s="20" t="n">
+        <v>0.649794161676647</v>
+      </c>
+      <c r="D22" s="20" t="n">
+        <v>0.359729219143577</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16812,11 +16895,11 @@
       <c r="B23" s="1" t="n">
         <v>203</v>
       </c>
-      <c r="C23" s="5" t="n">
-        <v>0.964516129032259</v>
-      </c>
-      <c r="D23" s="5" t="n">
-        <v>0.520551253818286</v>
+      <c r="C23" s="20" t="n">
+        <v>0.9351403678606</v>
+      </c>
+      <c r="D23" s="20" t="n">
+        <v>0.533787626237866</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16826,11 +16909,11 @@
       <c r="B24" s="1" t="n">
         <v>203</v>
       </c>
-      <c r="C24" s="5" t="n">
-        <v>0.956366215889881</v>
-      </c>
-      <c r="D24" s="5" t="n">
-        <v>0.60792455731952</v>
+      <c r="C24" s="20" t="n">
+        <v>0.937660782527487</v>
+      </c>
+      <c r="D24" s="20" t="n">
+        <v>0.628520089548722</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16840,11 +16923,11 @@
       <c r="B25" s="1" t="n">
         <v>203</v>
       </c>
-      <c r="C25" s="5" t="n">
-        <v>0.72985624463341</v>
-      </c>
-      <c r="D25" s="5" t="n">
-        <v>0.391865203948693</v>
+      <c r="C25" s="20" t="n">
+        <v>0.723254575107156</v>
+      </c>
+      <c r="D25" s="20" t="n">
+        <v>0.396859467655393</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16854,11 +16937,11 @@
       <c r="B26" s="1" t="n">
         <v>364</v>
       </c>
-      <c r="C26" s="5" t="n">
-        <v>0.779535352132242</v>
-      </c>
-      <c r="D26" s="5" t="n">
-        <v>0.376778656126483</v>
+      <c r="C26" s="20" t="n">
+        <v>0.754103566194431</v>
+      </c>
+      <c r="D26" s="20" t="n">
+        <v>0.359750267169132</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16868,11 +16951,11 @@
       <c r="B27" s="1" t="n">
         <v>364</v>
       </c>
-      <c r="C27" s="5" t="n">
-        <v>0.767294113837834</v>
-      </c>
-      <c r="D27" s="5" t="n">
-        <v>0.52221259625297</v>
+      <c r="C27" s="20" t="n">
+        <v>0.736809331837434</v>
+      </c>
+      <c r="D27" s="20" t="n">
+        <v>0.497272695688427</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16882,11 +16965,11 @@
       <c r="B28" s="1" t="n">
         <v>364</v>
       </c>
-      <c r="C28" s="5" t="n">
-        <v>0.964884142930418</v>
-      </c>
-      <c r="D28" s="5" t="n">
-        <v>0.689233869121217</v>
+      <c r="C28" s="20" t="n">
+        <v>0.949409123364667</v>
+      </c>
+      <c r="D28" s="20" t="n">
+        <v>0.676967661269814</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16896,10 +16979,9 @@
       <c r="B29" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="C29" s="5" t="n">
-        <v>0.547424094748656</v>
-      </c>
-      <c r="D29" s="5"/>
+      <c r="C29" s="20" t="n">
+        <v>0.565207435462104</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
@@ -16908,10 +16990,9 @@
       <c r="B30" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="C30" s="5" t="n">
-        <v>0.594986153139658</v>
-      </c>
-      <c r="D30" s="5"/>
+      <c r="C30" s="20" t="n">
+        <v>0.610532156319013</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
@@ -16920,10 +17001,9 @@
       <c r="B31" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="C31" s="5" t="n">
-        <v>0.51679635457898</v>
-      </c>
-      <c r="D31" s="5"/>
+      <c r="C31" s="20" t="n">
+        <v>0.529439690470821</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
@@ -16932,10 +17012,9 @@
       <c r="B32" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="C32" s="5" t="n">
-        <v>0.532884422110553</v>
-      </c>
-      <c r="D32" s="5"/>
+      <c r="C32" s="20" t="n">
+        <v>0.545941297103307</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
@@ -16944,10 +17023,9 @@
       <c r="B33" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="C33" s="5" t="n">
-        <v>0.456859758368892</v>
-      </c>
-      <c r="D33" s="5"/>
+      <c r="C33" s="20" t="n">
+        <v>0.466666877323812</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
@@ -16956,10 +17034,9 @@
       <c r="B34" s="1" t="n">
         <v>126</v>
       </c>
-      <c r="C34" s="5" t="n">
-        <v>0.846637273839893</v>
-      </c>
-      <c r="D34" s="5"/>
+      <c r="C34" s="20" t="n">
+        <v>0.858374144228533</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
@@ -16968,10 +17045,9 @@
       <c r="B35" s="1" t="n">
         <v>126</v>
       </c>
-      <c r="C35" s="5" t="n">
-        <v>0.788103106411104</v>
-      </c>
-      <c r="D35" s="5"/>
+      <c r="C35" s="20" t="n">
+        <v>0.792062510845046</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
@@ -16980,10 +17056,9 @@
       <c r="B36" s="1" t="n">
         <v>126</v>
       </c>
-      <c r="C36" s="5" t="n">
-        <v>0.835536689629537</v>
-      </c>
-      <c r="D36" s="5"/>
+      <c r="C36" s="20" t="n">
+        <v>0.840864886352343</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
@@ -16992,10 +17067,9 @@
       <c r="B37" s="1" t="n">
         <v>126</v>
       </c>
-      <c r="C37" s="5" t="n">
-        <v>0.83034914950761</v>
-      </c>
-      <c r="D37" s="5"/>
+      <c r="C37" s="20" t="n">
+        <v>0.851370155344687</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
@@ -17004,10 +17078,9 @@
       <c r="B38" s="1" t="n">
         <v>126</v>
       </c>
-      <c r="C38" s="5" t="n">
-        <v>0.746014623037276</v>
-      </c>
-      <c r="D38" s="5"/>
+      <c r="C38" s="20" t="n">
+        <v>0.778077807780778</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
@@ -17016,10 +17089,9 @@
       <c r="B39" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="C39" s="5" t="n">
-        <v>0.580523781395777</v>
-      </c>
-      <c r="D39" s="5"/>
+      <c r="C39" s="20" t="n">
+        <v>0.583224740697981</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
@@ -17028,10 +17100,9 @@
       <c r="B40" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="C40" s="5" t="n">
-        <v>0.47693661971831</v>
-      </c>
-      <c r="D40" s="5"/>
+      <c r="C40" s="20" t="n">
+        <v>0.487392016376663</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
@@ -17040,10 +17111,9 @@
       <c r="B41" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="C41" s="5" t="n">
-        <v>0.619219294536228</v>
-      </c>
-      <c r="D41" s="5"/>
+      <c r="C41" s="20" t="n">
+        <v>0.64278507442581</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
@@ -17052,10 +17122,9 @@
       <c r="B42" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="C42" s="5" t="n">
-        <v>0.55060987997688</v>
-      </c>
-      <c r="D42" s="5"/>
+      <c r="C42" s="20" t="n">
+        <v>0.56617606952765</v>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
@@ -17064,10 +17133,9 @@
       <c r="B43" s="1" t="n">
         <v>140</v>
       </c>
-      <c r="C43" s="5" t="n">
-        <v>0.789548634969177</v>
-      </c>
-      <c r="D43" s="5"/>
+      <c r="C43" s="20" t="n">
+        <v>0.794496792374517</v>
+      </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
@@ -17076,10 +17144,9 @@
       <c r="B44" s="1" t="n">
         <v>140</v>
       </c>
-      <c r="C44" s="5" t="n">
-        <v>0.890029815452629</v>
-      </c>
-      <c r="D44" s="5"/>
+      <c r="C44" s="20" t="n">
+        <v>0.901615912044445</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
@@ -17088,10 +17155,9 @@
       <c r="B45" s="1" t="n">
         <v>140</v>
       </c>
-      <c r="C45" s="5" t="n">
-        <v>0.825214575530588</v>
-      </c>
-      <c r="D45" s="5"/>
+      <c r="C45" s="20" t="n">
+        <v>0.836864350026043</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
@@ -17100,10 +17166,9 @@
       <c r="B46" s="1" t="n">
         <v>140</v>
       </c>
-      <c r="C46" s="5" t="n">
-        <v>0.848383515189353</v>
-      </c>
-      <c r="D46" s="5"/>
+      <c r="C46" s="20" t="n">
+        <v>0.863954396687252</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
@@ -17112,10 +17177,9 @@
       <c r="B47" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="C47" s="5" t="n">
-        <v>0.640518524029162</v>
-      </c>
-      <c r="D47" s="5"/>
+      <c r="C47" s="20" t="n">
+        <v>0.654183705241308</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
@@ -17124,10 +17188,9 @@
       <c r="B48" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="C48" s="5" t="n">
-        <v>0.584000976497481</v>
-      </c>
-      <c r="D48" s="5"/>
+      <c r="C48" s="20" t="n">
+        <v>0.604669289133003</v>
+      </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
@@ -17136,10 +17199,9 @@
       <c r="B49" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="C49" s="5" t="n">
-        <v>0.549453798261266</v>
-      </c>
-      <c r="D49" s="5"/>
+      <c r="C49" s="20" t="n">
+        <v>0.560436500937647</v>
+      </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
@@ -17148,10 +17210,9 @@
       <c r="B50" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="C50" s="5" t="n">
-        <v>0.534196119861698</v>
-      </c>
-      <c r="D50" s="5"/>
+      <c r="C50" s="20" t="n">
+        <v>0.561501846087019</v>
+      </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
@@ -17160,10 +17221,9 @@
       <c r="B51" s="1" t="n">
         <v>168</v>
       </c>
-      <c r="C51" s="5" t="n">
-        <v>0.918305473302129</v>
-      </c>
-      <c r="D51" s="5"/>
+      <c r="C51" s="20" t="n">
+        <v>0.922610671116697</v>
+      </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
@@ -17172,10 +17232,9 @@
       <c r="B52" s="1" t="n">
         <v>168</v>
       </c>
-      <c r="C52" s="5" t="n">
-        <v>0.926165312947921</v>
-      </c>
-      <c r="D52" s="5"/>
+      <c r="C52" s="20" t="n">
+        <v>0.929375578420165</v>
+      </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
@@ -17184,10 +17243,9 @@
       <c r="B53" s="1" t="n">
         <v>168</v>
       </c>
-      <c r="C53" s="5" t="n">
-        <v>0.800964828182569</v>
-      </c>
-      <c r="D53" s="5"/>
+      <c r="C53" s="20" t="n">
+        <v>0.803507196266937</v>
+      </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
@@ -17196,10 +17254,9 @@
       <c r="B54" s="1" t="n">
         <v>259</v>
       </c>
-      <c r="C54" s="5" t="n">
-        <v>0.894668794892258</v>
-      </c>
-      <c r="D54" s="5"/>
+      <c r="C54" s="20" t="n">
+        <v>0.914679995367592</v>
+      </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
@@ -17208,10 +17265,9 @@
       <c r="B55" s="1" t="n">
         <v>259</v>
       </c>
-      <c r="C55" s="5" t="n">
-        <v>0.73371104815864</v>
-      </c>
-      <c r="D55" s="5"/>
+      <c r="C55" s="20" t="n">
+        <v>0.802677482150611</v>
+      </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
@@ -17220,10 +17276,9 @@
       <c r="B56" s="1" t="n">
         <v>259</v>
       </c>
-      <c r="C56" s="5" t="n">
-        <v>0.859552248765515</v>
-      </c>
-      <c r="D56" s="5"/>
+      <c r="C56" s="20" t="n">
+        <v>0.888928468966245</v>
+      </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
@@ -17232,10 +17287,9 @@
       <c r="B57" s="1" t="n">
         <v>287</v>
       </c>
-      <c r="C57" s="5" t="n">
-        <v>0.72929058200904</v>
-      </c>
-      <c r="D57" s="5"/>
+      <c r="C57" s="20" t="n">
+        <v>0.777661643169665</v>
+      </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
@@ -17244,10 +17298,9 @@
       <c r="B58" s="1" t="n">
         <v>294</v>
       </c>
-      <c r="C58" s="5" t="n">
-        <v>0.761985500196883</v>
-      </c>
-      <c r="D58" s="5"/>
+      <c r="C58" s="20" t="n">
+        <v>0.839817112182638</v>
+      </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
@@ -17256,10 +17309,9 @@
       <c r="B59" s="1" t="n">
         <v>294</v>
       </c>
-      <c r="C59" s="5" t="n">
-        <v>0.818272659305269</v>
-      </c>
-      <c r="D59" s="5"/>
+      <c r="C59" s="20" t="n">
+        <v>0.814991007838133</v>
+      </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
@@ -17268,10 +17320,9 @@
       <c r="B60" s="1" t="n">
         <v>315</v>
       </c>
-      <c r="C60" s="5" t="n">
-        <v>0.927361179244849</v>
-      </c>
-      <c r="D60" s="5"/>
+      <c r="C60" s="20" t="n">
+        <v>0.931114937535654</v>
+      </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
@@ -17280,10 +17331,9 @@
       <c r="B61" s="1" t="n">
         <v>315</v>
       </c>
-      <c r="C61" s="5" t="n">
-        <v>0.929169499757163</v>
-      </c>
-      <c r="D61" s="5"/>
+      <c r="C61" s="20" t="n">
+        <v>0.916346335384964</v>
+      </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
@@ -17292,10 +17342,9 @@
       <c r="B62" s="1" t="n">
         <v>315</v>
       </c>
-      <c r="C62" s="5" t="n">
-        <v>0.920847226972183</v>
-      </c>
-      <c r="D62" s="5"/>
+      <c r="C62" s="20" t="n">
+        <v>0.927819339475607</v>
+      </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
@@ -17304,10 +17353,9 @@
       <c r="B63" s="1" t="n">
         <v>315</v>
       </c>
-      <c r="C63" s="5" t="n">
-        <v>0.936354296007415</v>
-      </c>
-      <c r="D63" s="5"/>
+      <c r="C63" s="20" t="n">
+        <v>0.936910656254597</v>
+      </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
@@ -17316,11 +17364,11 @@
       <c r="B64" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="C64" s="5" t="n">
-        <v>0.5723793795344</v>
-      </c>
-      <c r="D64" s="5" t="n">
-        <v>0.241764501758123</v>
+      <c r="C64" s="20" t="n">
+        <v>0.569301307554646</v>
+      </c>
+      <c r="D64" s="20" t="n">
+        <v>0.257096942366495</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17330,11 +17378,11 @@
       <c r="B65" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="C65" s="5" t="n">
-        <v>0.680177427838404</v>
-      </c>
-      <c r="D65" s="5" t="n">
-        <v>0.361716762103071</v>
+      <c r="C65" s="20" t="n">
+        <v>0.681686031864381</v>
+      </c>
+      <c r="D65" s="20" t="n">
+        <v>0.372997405691004</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17344,11 +17392,11 @@
       <c r="B66" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="C66" s="5" t="n">
-        <v>0.595779289778796</v>
-      </c>
-      <c r="D66" s="5" t="n">
-        <v>0.259618496915548</v>
+      <c r="C66" s="20" t="n">
+        <v>0.61053135822865</v>
+      </c>
+      <c r="D66" s="20" t="n">
+        <v>0.266060342954645</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17358,11 +17406,11 @@
       <c r="B67" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="C67" s="5" t="n">
-        <v>0.678927410665982</v>
-      </c>
-      <c r="D67" s="5" t="n">
-        <v>0.372818449747156</v>
+      <c r="C67" s="20" t="n">
+        <v>0.675947855172965</v>
+      </c>
+      <c r="D67" s="20" t="n">
+        <v>0.378408512006873</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17372,11 +17420,11 @@
       <c r="B68" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="C68" s="5" t="n">
-        <v>0.679600884831903</v>
-      </c>
-      <c r="D68" s="5" t="n">
-        <v>0.421754740076679</v>
+      <c r="C68" s="20" t="n">
+        <v>0.694414639477921</v>
+      </c>
+      <c r="D68" s="20" t="n">
+        <v>0.427962924055012</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17386,11 +17434,11 @@
       <c r="B69" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="C69" s="5" t="n">
-        <v>0.704502527020291</v>
-      </c>
-      <c r="D69" s="5" t="n">
-        <v>0.487594056487486</v>
+      <c r="C69" s="20" t="n">
+        <v>0.707976347226216</v>
+      </c>
+      <c r="D69" s="20" t="n">
+        <v>0.480471147148366</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17400,11 +17448,11 @@
       <c r="B70" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="C70" s="5" t="n">
-        <v>0.79379721411025</v>
-      </c>
-      <c r="D70" s="5" t="n">
-        <v>0.466706527606141</v>
+      <c r="C70" s="20" t="n">
+        <v>0.777403440925026</v>
+      </c>
+      <c r="D70" s="20" t="n">
+        <v>0.479892040818399</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17414,11 +17462,11 @@
       <c r="B71" s="1" t="n">
         <v>98</v>
       </c>
-      <c r="C71" s="5" t="n">
-        <v>0.780199596832077</v>
-      </c>
-      <c r="D71" s="5" t="n">
-        <v>0.635094730212051</v>
+      <c r="C71" s="20" t="n">
+        <v>0.785082398676836</v>
+      </c>
+      <c r="D71" s="20" t="n">
+        <v>0.606907823132829</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17428,11 +17476,11 @@
       <c r="B72" s="1" t="n">
         <v>98</v>
       </c>
-      <c r="C72" s="5" t="n">
-        <v>0.839992933617587</v>
-      </c>
-      <c r="D72" s="5" t="n">
-        <v>0.680252285464583</v>
+      <c r="C72" s="20" t="n">
+        <v>0.848777666193988</v>
+      </c>
+      <c r="D72" s="20" t="n">
+        <v>0.649579916195009</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17442,11 +17490,11 @@
       <c r="B73" s="1" t="n">
         <v>98</v>
       </c>
-      <c r="C73" s="5" t="n">
-        <v>0.857475746670229</v>
-      </c>
-      <c r="D73" s="5" t="n">
-        <v>0.746003843823373</v>
+      <c r="C73" s="20" t="n">
+        <v>0.860042491290216</v>
+      </c>
+      <c r="D73" s="20" t="n">
+        <v>0.740004955565607</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17456,11 +17504,11 @@
       <c r="B74" s="1" t="n">
         <v>98</v>
       </c>
-      <c r="C74" s="5" t="n">
-        <v>0.909630213434017</v>
-      </c>
-      <c r="D74" s="5" t="n">
-        <v>0.688564930984049</v>
+      <c r="C74" s="20" t="n">
+        <v>0.896554123861077</v>
+      </c>
+      <c r="D74" s="20" t="n">
+        <v>0.70437755961107</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17470,11 +17518,11 @@
       <c r="B75" s="1" t="n">
         <v>140</v>
       </c>
-      <c r="C75" s="5" t="n">
-        <v>0.865053391473999</v>
-      </c>
-      <c r="D75" s="5" t="n">
-        <v>0.712424697787706</v>
+      <c r="C75" s="20" t="n">
+        <v>0.865196892305602</v>
+      </c>
+      <c r="D75" s="20" t="n">
+        <v>0.708260170542334</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17484,11 +17532,11 @@
       <c r="B76" s="1" t="n">
         <v>140</v>
       </c>
-      <c r="C76" s="5" t="n">
-        <v>0.972815268215884</v>
-      </c>
-      <c r="D76" s="5" t="n">
-        <v>0.757971039272603</v>
+      <c r="C76" s="20" t="n">
+        <v>0.962394888436455</v>
+      </c>
+      <c r="D76" s="20" t="n">
+        <v>0.759568142858</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17498,11 +17546,11 @@
       <c r="B77" s="1" t="n">
         <v>140</v>
       </c>
-      <c r="C77" s="5" t="n">
-        <v>0.948001237251862</v>
-      </c>
-      <c r="D77" s="5" t="n">
-        <v>0.793717393040194</v>
+      <c r="C77" s="20" t="n">
+        <v>0.94748837002031</v>
+      </c>
+      <c r="D77" s="20" t="n">
+        <v>0.787454592914576</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17512,11 +17560,11 @@
       <c r="B78" s="1" t="n">
         <v>140</v>
       </c>
-      <c r="C78" s="5" t="n">
-        <v>0.936791846981275</v>
-      </c>
-      <c r="D78" s="5" t="n">
-        <v>0.788780236220529</v>
+      <c r="C78" s="20" t="n">
+        <v>0.931771686658137</v>
+      </c>
+      <c r="D78" s="20" t="n">
+        <v>0.787117399070744</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17526,11 +17574,11 @@
       <c r="B79" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="C79" s="5" t="n">
-        <v>0.816252399290412</v>
-      </c>
-      <c r="D79" s="5" t="n">
-        <v>0.428394503862984</v>
+      <c r="C79" s="20" t="n">
+        <v>0.83019621649506</v>
+      </c>
+      <c r="D79" s="20" t="n">
+        <v>0.45247538359179</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17540,11 +17588,11 @@
       <c r="B80" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="C80" s="5" t="n">
-        <v>0.572534646352711</v>
-      </c>
-      <c r="D80" s="5" t="n">
-        <v>0.357774417228491</v>
+      <c r="C80" s="20" t="n">
+        <v>0.602340377515481</v>
+      </c>
+      <c r="D80" s="20" t="n">
+        <v>0.384761250743791</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17554,11 +17602,11 @@
       <c r="B81" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="C81" s="5" t="n">
-        <v>0.492297742253978</v>
-      </c>
-      <c r="D81" s="5" t="n">
-        <v>0.288719400303274</v>
+      <c r="C81" s="20" t="n">
+        <v>0.51188754915834</v>
+      </c>
+      <c r="D81" s="20" t="n">
+        <v>0.314299079699694</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17568,11 +17616,11 @@
       <c r="B82" s="1" t="n">
         <v>89</v>
       </c>
-      <c r="C82" s="5" t="n">
-        <v>0.737233228190592</v>
-      </c>
-      <c r="D82" s="5" t="n">
-        <v>0.482562780152869</v>
+      <c r="C82" s="20" t="n">
+        <v>0.751093411405784</v>
+      </c>
+      <c r="D82" s="20" t="n">
+        <v>0.508842135553136</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17582,11 +17630,11 @@
       <c r="B83" s="1" t="n">
         <v>89</v>
       </c>
-      <c r="C83" s="5" t="n">
-        <v>0.778455109985197</v>
-      </c>
-      <c r="D83" s="5" t="n">
-        <v>0.548255832377109</v>
+      <c r="C83" s="20" t="n">
+        <v>0.776151153631466</v>
+      </c>
+      <c r="D83" s="20" t="n">
+        <v>0.55171925245828</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17596,11 +17644,11 @@
       <c r="B84" s="1" t="n">
         <v>89</v>
       </c>
-      <c r="C84" s="5" t="n">
-        <v>0.824440743598216</v>
-      </c>
-      <c r="D84" s="5" t="n">
-        <v>0.550570611464466</v>
+      <c r="C84" s="20" t="n">
+        <v>0.798784861729319</v>
+      </c>
+      <c r="D84" s="20" t="n">
+        <v>0.567680262440511</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17610,11 +17658,11 @@
       <c r="B85" s="1" t="n">
         <v>224</v>
       </c>
-      <c r="C85" s="5" t="n">
-        <v>0.956435039805503</v>
-      </c>
-      <c r="D85" s="5" t="n">
-        <v>0.851901212846939</v>
+      <c r="C85" s="20" t="n">
+        <v>0.948446307382966</v>
+      </c>
+      <c r="D85" s="20" t="n">
+        <v>0.854183695706733</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17624,11 +17672,11 @@
       <c r="B86" s="1" t="n">
         <v>224</v>
       </c>
-      <c r="C86" s="5" t="n">
-        <v>0.938088984549882</v>
-      </c>
-      <c r="D86" s="5" t="n">
-        <v>0.846542539868081</v>
+      <c r="C86" s="20" t="n">
+        <v>0.928365336997366</v>
+      </c>
+      <c r="D86" s="20" t="n">
+        <v>0.831013306009459</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17638,11 +17686,11 @@
       <c r="B87" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="C87" s="5" t="n">
-        <v>0.110219736073416</v>
-      </c>
-      <c r="D87" s="5" t="n">
-        <v>0.046754058949181</v>
+      <c r="C87" s="20" t="n">
+        <v>0.105431029256308</v>
+      </c>
+      <c r="D87" s="20" t="n">
+        <v>0.0436466876735239</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17652,11 +17700,11 @@
       <c r="B88" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="C88" s="5" t="n">
-        <v>0.0945114870012628</v>
-      </c>
-      <c r="D88" s="5" t="n">
-        <v>0.0573795027892311</v>
+      <c r="C88" s="20" t="n">
+        <v>0.0925975516713865</v>
+      </c>
+      <c r="D88" s="20" t="n">
+        <v>0.0509823561080521</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17666,11 +17714,11 @@
       <c r="B89" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="C89" s="5" t="n">
-        <v>0.454044750460273</v>
-      </c>
-      <c r="D89" s="5" t="n">
-        <v>0.224054695531794</v>
+      <c r="C89" s="20" t="n">
+        <v>0.454143101247907</v>
+      </c>
+      <c r="D89" s="20" t="n">
+        <v>0.228234706244601</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17680,11 +17728,11 @@
       <c r="B90" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="C90" s="5" t="n">
-        <v>0.398997526804835</v>
-      </c>
-      <c r="D90" s="5" t="n">
-        <v>0.144749384456279</v>
+      <c r="C90" s="20" t="n">
+        <v>0.3970886563411</v>
+      </c>
+      <c r="D90" s="20" t="n">
+        <v>0.147269967277519</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17694,11 +17742,11 @@
       <c r="B91" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="C91" s="5" t="n">
-        <v>0.36175494441228</v>
-      </c>
-      <c r="D91" s="5" t="n">
-        <v>0.124688044269053</v>
+      <c r="C91" s="20" t="n">
+        <v>0.359358079118717</v>
+      </c>
+      <c r="D91" s="20" t="n">
+        <v>0.130728230299866</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17708,11 +17756,11 @@
       <c r="B92" s="1" t="n">
         <v>246</v>
       </c>
-      <c r="C92" s="5" t="n">
-        <v>0.932349794060351</v>
-      </c>
-      <c r="D92" s="5" t="n">
-        <v>0.847500543481798</v>
+      <c r="C92" s="20" t="n">
+        <v>0.918013818189283</v>
+      </c>
+      <c r="D92" s="20" t="n">
+        <v>0.841766020969694</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17722,11 +17770,11 @@
       <c r="B93" s="1" t="n">
         <v>246</v>
       </c>
-      <c r="C93" s="5" t="n">
-        <v>0.990346816506323</v>
-      </c>
-      <c r="D93" s="5" t="n">
-        <v>0.950307179495306</v>
+      <c r="C93" s="20" t="n">
+        <v>0.984617994683962</v>
+      </c>
+      <c r="D93" s="20" t="n">
+        <v>0.922893122229884</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17736,11 +17784,11 @@
       <c r="B94" s="1" t="n">
         <v>246</v>
       </c>
-      <c r="C94" s="5" t="n">
-        <v>0.92656395421312</v>
-      </c>
-      <c r="D94" s="5" t="n">
-        <v>0.821260959778676</v>
+      <c r="C94" s="20" t="n">
+        <v>0.916245552225765</v>
+      </c>
+      <c r="D94" s="20" t="n">
+        <v>0.827106751801006</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17750,11 +17798,11 @@
       <c r="B95" s="1" t="n">
         <v>246</v>
       </c>
-      <c r="C95" s="5" t="n">
-        <v>0.971840733860401</v>
-      </c>
-      <c r="D95" s="5" t="n">
-        <v>0.872241376658532</v>
+      <c r="C95" s="20" t="n">
+        <v>0.968743993245793</v>
+      </c>
+      <c r="D95" s="20" t="n">
+        <v>0.877155518488035</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17764,11 +17812,11 @@
       <c r="B96" s="1" t="n">
         <v>246</v>
       </c>
-      <c r="C96" s="5" t="n">
-        <v>0.975921225349087</v>
-      </c>
-      <c r="D96" s="5" t="n">
-        <v>0.905708754461661</v>
+      <c r="C96" s="20" t="n">
+        <v>0.965968483581161</v>
+      </c>
+      <c r="D96" s="20" t="n">
+        <v>0.899130447047142</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17778,11 +17826,11 @@
       <c r="B97" s="1" t="n">
         <v>246</v>
       </c>
-      <c r="C97" s="5" t="n">
-        <v>0.939135211960421</v>
-      </c>
-      <c r="D97" s="5" t="n">
-        <v>0.819601594911232</v>
+      <c r="C97" s="20" t="n">
+        <v>0.931819857865677</v>
+      </c>
+      <c r="D97" s="20" t="n">
+        <v>0.806380691308157</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17792,11 +17840,11 @@
       <c r="B98" s="1" t="n">
         <v>246</v>
       </c>
-      <c r="C98" s="5" t="n">
-        <v>0.935913157005338</v>
-      </c>
-      <c r="D98" s="5" t="n">
-        <v>0.836836814217437</v>
+      <c r="C98" s="20" t="n">
+        <v>0.924818131592621</v>
+      </c>
+      <c r="D98" s="20" t="n">
+        <v>0.82116791556124</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17806,11 +17854,11 @@
       <c r="B99" s="1" t="n">
         <v>246</v>
       </c>
-      <c r="C99" s="5" t="n">
-        <v>0.954484554171613</v>
-      </c>
-      <c r="D99" s="5" t="n">
-        <v>0.874419176296689</v>
+      <c r="C99" s="20" t="n">
+        <v>0.951183856921986</v>
+      </c>
+      <c r="D99" s="20" t="n">
+        <v>0.844665877427866</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17820,11 +17868,11 @@
       <c r="B100" s="1" t="n">
         <v>246</v>
       </c>
-      <c r="C100" s="5" t="n">
-        <v>0.941440480893077</v>
-      </c>
-      <c r="D100" s="5" t="n">
-        <v>0.869789507074227</v>
+      <c r="C100" s="20" t="n">
+        <v>0.933501976136773</v>
+      </c>
+      <c r="D100" s="20" t="n">
+        <v>0.83627588824477</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17834,11 +17882,11 @@
       <c r="B101" s="1" t="n">
         <v>246</v>
       </c>
-      <c r="C101" s="5" t="n">
-        <v>0.971134959428286</v>
-      </c>
-      <c r="D101" s="5" t="n">
-        <v>0.898671997902465</v>
+      <c r="C101" s="20" t="n">
+        <v>0.964942689525108</v>
+      </c>
+      <c r="D101" s="20" t="n">
+        <v>0.87758075826816</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17848,11 +17896,11 @@
       <c r="B102" s="1" t="n">
         <v>246</v>
       </c>
-      <c r="C102" s="5" t="n">
-        <v>0.963361913892141</v>
-      </c>
-      <c r="D102" s="5" t="n">
-        <v>0.88117797125286</v>
+      <c r="C102" s="20" t="n">
+        <v>0.954698460128455</v>
+      </c>
+      <c r="D102" s="20" t="n">
+        <v>0.878834552194561</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17862,11 +17910,11 @@
       <c r="B103" s="1" t="n">
         <v>246</v>
       </c>
-      <c r="C103" s="5" t="n">
-        <v>0.870072713435471</v>
-      </c>
-      <c r="D103" s="5" t="n">
-        <v>0.829934943796929</v>
+      <c r="C103" s="20" t="n">
+        <v>0.854308074566276</v>
+      </c>
+      <c r="D103" s="20" t="n">
+        <v>0.787926253942679</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17876,11 +17924,11 @@
       <c r="B104" s="1" t="n">
         <v>246</v>
       </c>
-      <c r="C104" s="5" t="n">
-        <v>0.947878457941292</v>
-      </c>
-      <c r="D104" s="5" t="n">
-        <v>0.86961363970292</v>
+      <c r="C104" s="20" t="n">
+        <v>0.937869794928035</v>
+      </c>
+      <c r="D104" s="20" t="n">
+        <v>0.830544954873549</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17890,11 +17938,11 @@
       <c r="B105" s="1" t="n">
         <v>260</v>
       </c>
-      <c r="C105" s="5" t="n">
-        <v>0.939343745459623</v>
-      </c>
-      <c r="D105" s="5" t="n">
-        <v>0.824794872841572</v>
+      <c r="C105" s="20" t="n">
+        <v>0.921707095720883</v>
+      </c>
+      <c r="D105" s="20" t="n">
+        <v>0.800926419532571</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17904,11 +17952,11 @@
       <c r="B106" s="1" t="n">
         <v>260</v>
       </c>
-      <c r="C106" s="5" t="n">
-        <v>0.927635410020061</v>
-      </c>
-      <c r="D106" s="5" t="n">
-        <v>0.836553918685386</v>
+      <c r="C106" s="20" t="n">
+        <v>0.915994646505321</v>
+      </c>
+      <c r="D106" s="20" t="n">
+        <v>0.823019458833908</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17918,11 +17966,11 @@
       <c r="B107" s="1" t="n">
         <v>260</v>
       </c>
-      <c r="C107" s="5" t="n">
-        <v>0.924409423180241</v>
-      </c>
-      <c r="D107" s="5" t="n">
-        <v>0.785415040922154</v>
+      <c r="C107" s="20" t="n">
+        <v>0.916605199704634</v>
+      </c>
+      <c r="D107" s="20" t="n">
+        <v>0.787723668881241</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17932,11 +17980,11 @@
       <c r="B108" s="1" t="n">
         <v>260</v>
       </c>
-      <c r="C108" s="5" t="n">
-        <v>0.965848258557829</v>
-      </c>
-      <c r="D108" s="5" t="n">
-        <v>0.833277640918845</v>
+      <c r="C108" s="20" t="n">
+        <v>0.959473233193736</v>
+      </c>
+      <c r="D108" s="20" t="n">
+        <v>0.838904887237663</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17946,11 +17994,11 @@
       <c r="B109" s="1" t="n">
         <v>260</v>
       </c>
-      <c r="C109" s="5" t="n">
-        <v>0.978483100906053</v>
-      </c>
-      <c r="D109" s="5" t="n">
-        <v>0.866968860440455</v>
+      <c r="C109" s="20" t="n">
+        <v>0.963436308041796</v>
+      </c>
+      <c r="D109" s="20" t="n">
+        <v>0.850601680130472</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17960,11 +18008,11 @@
       <c r="B110" s="1" t="n">
         <v>260</v>
       </c>
-      <c r="C110" s="5" t="n">
-        <v>0.859814295577742</v>
-      </c>
-      <c r="D110" s="5" t="n">
-        <v>0.822884981822992</v>
+      <c r="C110" s="20" t="n">
+        <v>0.842500022533026</v>
+      </c>
+      <c r="D110" s="20" t="n">
+        <v>0.806862196500385</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17974,11 +18022,11 @@
       <c r="B111" s="1" t="n">
         <v>260</v>
       </c>
-      <c r="C111" s="5" t="n">
-        <v>1.02731635102704</v>
-      </c>
-      <c r="D111" s="5" t="n">
-        <v>0.936162508108945</v>
+      <c r="C111" s="20" t="n">
+        <v>1.01360179397676</v>
+      </c>
+      <c r="D111" s="20" t="n">
+        <v>0.909608205350456</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17988,11 +18036,11 @@
       <c r="B112" s="1" t="n">
         <v>260</v>
       </c>
-      <c r="C112" s="5" t="n">
-        <v>0.932325635123497</v>
-      </c>
-      <c r="D112" s="5" t="n">
-        <v>0.819896855656376</v>
+      <c r="C112" s="20" t="n">
+        <v>0.926761331207387</v>
+      </c>
+      <c r="D112" s="20" t="n">
+        <v>0.800360245307881</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18002,11 +18050,11 @@
       <c r="B113" s="1" t="n">
         <v>260</v>
       </c>
-      <c r="C113" s="5" t="n">
-        <v>0.908672467094844</v>
-      </c>
-      <c r="D113" s="5" t="n">
-        <v>0.763709178480432</v>
+      <c r="C113" s="20" t="n">
+        <v>0.889699517664089</v>
+      </c>
+      <c r="D113" s="20" t="n">
+        <v>0.759924677983998</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18016,11 +18064,11 @@
       <c r="B114" s="1" t="n">
         <v>260</v>
       </c>
-      <c r="C114" s="5" t="n">
-        <v>0.898768047768743</v>
-      </c>
-      <c r="D114" s="5" t="n">
-        <v>0.710188172901823</v>
+      <c r="C114" s="20" t="n">
+        <v>0.879657765479274</v>
+      </c>
+      <c r="D114" s="20" t="n">
+        <v>0.708696430388026</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18030,11 +18078,11 @@
       <c r="B115" s="1" t="n">
         <v>260</v>
       </c>
-      <c r="C115" s="5" t="n">
-        <v>0.94119023974431</v>
-      </c>
-      <c r="D115" s="5" t="n">
-        <v>0.814508495145631</v>
+      <c r="C115" s="20" t="n">
+        <v>0.918279107037706</v>
+      </c>
+      <c r="D115" s="20" t="n">
+        <v>0.813328083204111</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18044,11 +18092,11 @@
       <c r="B116" s="1" t="n">
         <v>260</v>
       </c>
-      <c r="C116" s="5" t="n">
-        <v>0.981750633415337</v>
-      </c>
-      <c r="D116" s="5" t="n">
-        <v>0.822913722833027</v>
+      <c r="C116" s="20" t="n">
+        <v>0.957573860213879</v>
+      </c>
+      <c r="D116" s="20" t="n">
+        <v>0.830816001114075</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18058,11 +18106,11 @@
       <c r="B117" s="1" t="n">
         <v>260</v>
       </c>
-      <c r="C117" s="5" t="n">
-        <v>0.892371407716969</v>
-      </c>
-      <c r="D117" s="5" t="n">
-        <v>0.844973666132357</v>
+      <c r="C117" s="20" t="n">
+        <v>0.887979588466454</v>
+      </c>
+      <c r="D117" s="20" t="n">
+        <v>0.833660668594633</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18072,11 +18120,11 @@
       <c r="B118" s="1" t="n">
         <v>260</v>
       </c>
-      <c r="C118" s="5" t="n">
-        <v>0.995722902301737</v>
-      </c>
-      <c r="D118" s="5" t="n">
-        <v>0.877991867465551</v>
+      <c r="C118" s="20" t="n">
+        <v>0.979214878007628</v>
+      </c>
+      <c r="D118" s="20" t="n">
+        <v>0.873112208600178</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18086,11 +18134,11 @@
       <c r="B119" s="1" t="n">
         <v>95</v>
       </c>
-      <c r="C119" s="5" t="n">
-        <v>0.864107950016122</v>
-      </c>
-      <c r="D119" s="5" t="n">
-        <v>0.678497308744754</v>
+      <c r="C119" s="20" t="n">
+        <v>0.873234561147979</v>
+      </c>
+      <c r="D119" s="20" t="n">
+        <v>0.692267785535407</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18100,11 +18148,11 @@
       <c r="B120" s="1" t="n">
         <v>95</v>
       </c>
-      <c r="C120" s="5" t="n">
-        <v>0.857730543743465</v>
-      </c>
-      <c r="D120" s="5" t="n">
-        <v>0.72579792697291</v>
+      <c r="C120" s="20" t="n">
+        <v>0.858369396841448</v>
+      </c>
+      <c r="D120" s="20" t="n">
+        <v>0.721345512778823</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18114,11 +18162,11 @@
       <c r="B121" s="1" t="n">
         <v>95</v>
       </c>
-      <c r="C121" s="5" t="n">
-        <v>0.944545613379212</v>
-      </c>
-      <c r="D121" s="5" t="n">
-        <v>0.714046713528178</v>
+      <c r="C121" s="20" t="n">
+        <v>0.95745831483912</v>
+      </c>
+      <c r="D121" s="20" t="n">
+        <v>0.745299221896223</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18128,11 +18176,11 @@
       <c r="B122" s="1" t="n">
         <v>95</v>
       </c>
-      <c r="C122" s="5" t="n">
-        <v>0.92450856227859</v>
-      </c>
-      <c r="D122" s="5" t="n">
-        <v>0.655358635105694</v>
+      <c r="C122" s="20" t="n">
+        <v>0.911502730072595</v>
+      </c>
+      <c r="D122" s="20" t="n">
+        <v>0.677494113410318</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18142,11 +18190,11 @@
       <c r="B123" s="1" t="n">
         <v>95</v>
       </c>
-      <c r="C123" s="5" t="n">
-        <v>0.88867038962213</v>
-      </c>
-      <c r="D123" s="5" t="n">
-        <v>0.656861743341404</v>
+      <c r="C123" s="20" t="n">
+        <v>0.888719517056225</v>
+      </c>
+      <c r="D123" s="20" t="n">
+        <v>0.660085824121625</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18156,11 +18204,11 @@
       <c r="B124" s="1" t="n">
         <v>95</v>
       </c>
-      <c r="C124" s="5" t="n">
-        <v>0.82758034262237</v>
-      </c>
-      <c r="D124" s="5" t="n">
-        <v>0.621338081818463</v>
+      <c r="C124" s="20" t="n">
+        <v>0.838868327959004</v>
+      </c>
+      <c r="D124" s="20" t="n">
+        <v>0.647137962473825</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18170,11 +18218,11 @@
       <c r="B125" s="1" t="n">
         <v>95</v>
       </c>
-      <c r="C125" s="5" t="n">
-        <v>0.843143536006965</v>
-      </c>
-      <c r="D125" s="5" t="n">
-        <v>0.636964100534336</v>
+      <c r="C125" s="20" t="n">
+        <v>0.845268837026715</v>
+      </c>
+      <c r="D125" s="20" t="n">
+        <v>0.650721437782243</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18184,11 +18232,11 @@
       <c r="B126" s="1" t="n">
         <v>95</v>
       </c>
-      <c r="C126" s="5" t="n">
-        <v>0.831223478296212</v>
-      </c>
-      <c r="D126" s="5" t="n">
-        <v>0.623184548736983</v>
+      <c r="C126" s="20" t="n">
+        <v>0.831892119066526</v>
+      </c>
+      <c r="D126" s="20" t="n">
+        <v>0.618044800296627</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18198,11 +18246,11 @@
       <c r="B127" s="1" t="n">
         <v>95</v>
       </c>
-      <c r="C127" s="5" t="n">
-        <v>0.926017332029625</v>
-      </c>
-      <c r="D127" s="5" t="n">
-        <v>0.732276461740928</v>
+      <c r="C127" s="20" t="n">
+        <v>0.92580707555537</v>
+      </c>
+      <c r="D127" s="20" t="n">
+        <v>0.745348874042537</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18212,11 +18260,11 @@
       <c r="B128" s="1" t="n">
         <v>95</v>
       </c>
-      <c r="C128" s="5" t="n">
-        <v>0.972303836134174</v>
-      </c>
-      <c r="D128" s="5" t="n">
-        <v>0.763361540910538</v>
+      <c r="C128" s="20" t="n">
+        <v>0.963910340497639</v>
+      </c>
+      <c r="D128" s="20" t="n">
+        <v>0.735663661404735</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18226,11 +18274,11 @@
       <c r="B129" s="1" t="n">
         <v>95</v>
       </c>
-      <c r="C129" s="5" t="n">
-        <v>0.904326368630989</v>
-      </c>
-      <c r="D129" s="5" t="n">
-        <v>0.678204032318962</v>
+      <c r="C129" s="20" t="n">
+        <v>0.904606754269044</v>
+      </c>
+      <c r="D129" s="20" t="n">
+        <v>0.691255033892151</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18240,11 +18288,11 @@
       <c r="B130" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="C130" s="5" t="n">
-        <v>0.563886668443024</v>
-      </c>
-      <c r="D130" s="5" t="n">
-        <v>0.27341684890575</v>
+      <c r="C130" s="20" t="n">
+        <v>0.551512068724096</v>
+      </c>
+      <c r="D130" s="20" t="n">
+        <v>0.290918181068267</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18254,11 +18302,11 @@
       <c r="B131" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="C131" s="5" t="n">
-        <v>0.720931495563391</v>
-      </c>
-      <c r="D131" s="5" t="n">
-        <v>0.451853775589487</v>
+      <c r="C131" s="20" t="n">
+        <v>0.728624935813553</v>
+      </c>
+      <c r="D131" s="20" t="n">
+        <v>0.458105173286283</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18268,11 +18316,11 @@
       <c r="B132" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="C132" s="5" t="n">
-        <v>0.709432302616668</v>
-      </c>
-      <c r="D132" s="5" t="n">
-        <v>0.431158104759253</v>
+      <c r="C132" s="20" t="n">
+        <v>0.710885666970858</v>
+      </c>
+      <c r="D132" s="20" t="n">
+        <v>0.448110618779286</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18282,11 +18330,11 @@
       <c r="B133" s="1" t="n">
         <v>82</v>
       </c>
-      <c r="C133" s="5" t="n">
-        <v>0.737952344813082</v>
-      </c>
-      <c r="D133" s="5" t="n">
-        <v>0.502854727146965</v>
+      <c r="C133" s="20" t="n">
+        <v>0.742615999160154</v>
+      </c>
+      <c r="D133" s="20" t="n">
+        <v>0.508302839762584</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18296,11 +18344,11 @@
       <c r="B134" s="1" t="n">
         <v>82</v>
       </c>
-      <c r="C134" s="5" t="n">
-        <v>0.773458516927196</v>
-      </c>
-      <c r="D134" s="5" t="n">
-        <v>0.565332095437756</v>
+      <c r="C134" s="20" t="n">
+        <v>0.776987621501895</v>
+      </c>
+      <c r="D134" s="20" t="n">
+        <v>0.568613389345893</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18310,11 +18358,11 @@
       <c r="B135" s="1" t="n">
         <v>82</v>
       </c>
-      <c r="C135" s="5" t="n">
-        <v>0.779466229584474</v>
-      </c>
-      <c r="D135" s="5" t="n">
-        <v>0.518837327924002</v>
+      <c r="C135" s="20" t="n">
+        <v>0.782743774821777</v>
+      </c>
+      <c r="D135" s="20" t="n">
+        <v>0.528641690585645</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18324,11 +18372,11 @@
       <c r="B136" s="1" t="n">
         <v>201</v>
       </c>
-      <c r="C136" s="5" t="n">
-        <v>1.04130812807267</v>
-      </c>
-      <c r="D136" s="5" t="n">
-        <v>0.93250650987526</v>
+      <c r="C136" s="20" t="n">
+        <v>1.03023524866135</v>
+      </c>
+      <c r="D136" s="20" t="n">
+        <v>0.900301747794025</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18338,11 +18386,11 @@
       <c r="B137" s="1" t="n">
         <v>201</v>
       </c>
-      <c r="C137" s="5" t="n">
-        <v>0.92688773109607</v>
-      </c>
-      <c r="D137" s="5" t="n">
-        <v>0.773854981197871</v>
+      <c r="C137" s="20" t="n">
+        <v>0.920122640852324</v>
+      </c>
+      <c r="D137" s="20" t="n">
+        <v>0.765939031237483</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18352,11 +18400,11 @@
       <c r="B138" s="1" t="n">
         <v>201</v>
       </c>
-      <c r="C138" s="5" t="n">
-        <v>0.852476858915676</v>
-      </c>
-      <c r="D138" s="5" t="n">
-        <v>0.756183615036483</v>
+      <c r="C138" s="20" t="n">
+        <v>0.830393536115361</v>
+      </c>
+      <c r="D138" s="20" t="n">
+        <v>0.696596324463464</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18366,11 +18414,11 @@
       <c r="B139" s="1" t="n">
         <v>201</v>
       </c>
-      <c r="C139" s="5" t="n">
-        <v>0.958645009084654</v>
-      </c>
-      <c r="D139" s="5" t="n">
-        <v>0.705824227477151</v>
+      <c r="C139" s="20" t="n">
+        <v>0.932820115285106</v>
+      </c>
+      <c r="D139" s="20" t="n">
+        <v>0.702249643229376</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18380,11 +18428,11 @@
       <c r="B140" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="C140" s="5" t="n">
-        <v>0.325121657377082</v>
-      </c>
-      <c r="D140" s="5" t="n">
-        <v>0.104849423968258</v>
+      <c r="C140" s="20" t="n">
+        <v>0.335854508951821</v>
+      </c>
+      <c r="D140" s="20" t="n">
+        <v>0.125050983103651</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18394,11 +18442,11 @@
       <c r="B141" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="C141" s="5" t="n">
-        <v>0.380586547630981</v>
-      </c>
-      <c r="D141" s="5" t="n">
-        <v>0.106671430929481</v>
+      <c r="C141" s="20" t="n">
+        <v>0.389232574731819</v>
+      </c>
+      <c r="D141" s="20" t="n">
+        <v>0.123926696524311</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18408,11 +18456,11 @@
       <c r="B142" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="C142" s="5" t="n">
-        <v>0.352731323165603</v>
-      </c>
-      <c r="D142" s="5" t="n">
-        <v>0.117047031283252</v>
+      <c r="C142" s="20" t="n">
+        <v>0.366424246649069</v>
+      </c>
+      <c r="D142" s="20" t="n">
+        <v>0.170654859140223</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18422,11 +18470,11 @@
       <c r="B143" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="C143" s="5" t="n">
-        <v>0.52637323610229</v>
-      </c>
-      <c r="D143" s="5" t="n">
-        <v>0.281417686503306</v>
+      <c r="C143" s="20" t="n">
+        <v>0.531664243724163</v>
+      </c>
+      <c r="D143" s="20" t="n">
+        <v>0.304699353580468</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18436,11 +18484,11 @@
       <c r="B144" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="C144" s="5" t="n">
-        <v>0.592856435166719</v>
-      </c>
-      <c r="D144" s="5" t="n">
-        <v>0.313038343558282</v>
+      <c r="C144" s="20" t="n">
+        <v>0.593878263907158</v>
+      </c>
+      <c r="D144" s="20" t="n">
+        <v>0.331019469323908</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18450,11 +18498,11 @@
       <c r="B145" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="C145" s="5" t="n">
-        <v>0.569857613075182</v>
-      </c>
-      <c r="D145" s="5" t="n">
-        <v>0.266793944419873</v>
+      <c r="C145" s="20" t="n">
+        <v>0.551179784910008</v>
+      </c>
+      <c r="D145" s="20" t="n">
+        <v>0.278826618879277</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18464,11 +18512,11 @@
       <c r="B146" s="1" t="n">
         <v>264</v>
       </c>
-      <c r="C146" s="5" t="n">
-        <v>1.00726854569351</v>
-      </c>
-      <c r="D146" s="5" t="n">
-        <v>0.855118449022974</v>
+      <c r="C146" s="20" t="n">
+        <v>1.00119058162133</v>
+      </c>
+      <c r="D146" s="20" t="n">
+        <v>0.847709036380016</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18478,11 +18526,11 @@
       <c r="B147" s="1" t="n">
         <v>264</v>
       </c>
-      <c r="C147" s="5" t="n">
-        <v>0.875775585898202</v>
-      </c>
-      <c r="D147" s="5" t="n">
-        <v>0.71647477686889</v>
+      <c r="C147" s="20" t="n">
+        <v>0.85856005881248</v>
+      </c>
+      <c r="D147" s="20" t="n">
+        <v>0.736017793372538</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18492,11 +18540,11 @@
       <c r="B148" s="1" t="n">
         <v>264</v>
       </c>
-      <c r="C148" s="5" t="n">
-        <v>0.971806404083243</v>
-      </c>
-      <c r="D148" s="5" t="n">
-        <v>0.858393378773125</v>
+      <c r="C148" s="20" t="n">
+        <v>0.93174430647125</v>
+      </c>
+      <c r="D148" s="20" t="n">
+        <v>0.839056954497118</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18506,11 +18554,11 @@
       <c r="B149" s="1" t="n">
         <v>264</v>
       </c>
-      <c r="C149" s="5" t="n">
-        <v>1.05740346317267</v>
-      </c>
-      <c r="D149" s="5" t="n">
-        <v>0.849223946784923</v>
+      <c r="C149" s="20" t="n">
+        <v>1.02508689319707</v>
+      </c>
+      <c r="D149" s="20" t="n">
+        <v>0.853489064688667</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18520,11 +18568,11 @@
       <c r="B150" s="1" t="n">
         <v>152</v>
       </c>
-      <c r="C150" s="5" t="n">
-        <v>0.887963210159748</v>
-      </c>
-      <c r="D150" s="5" t="n">
-        <v>0.72260775455356</v>
+      <c r="C150" s="20" t="n">
+        <v>0.887605995116923</v>
+      </c>
+      <c r="D150" s="20" t="n">
+        <v>0.721402390470064</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18534,11 +18582,11 @@
       <c r="B151" s="1" t="n">
         <v>152</v>
       </c>
-      <c r="C151" s="5" t="n">
-        <v>0.864539506674389</v>
-      </c>
-      <c r="D151" s="5" t="n">
-        <v>0.593597861357423</v>
+      <c r="C151" s="20" t="n">
+        <v>0.838789787428614</v>
+      </c>
+      <c r="D151" s="20" t="n">
+        <v>0.588253754373791</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18548,11 +18596,11 @@
       <c r="B152" s="1" t="n">
         <v>152</v>
       </c>
-      <c r="C152" s="5" t="n">
-        <v>0.90060661177555</v>
-      </c>
-      <c r="D152" s="5" t="n">
-        <v>0.729283804952838</v>
+      <c r="C152" s="20" t="n">
+        <v>0.893941192965538</v>
+      </c>
+      <c r="D152" s="20" t="n">
+        <v>0.723687322980217</v>
       </c>
     </row>
   </sheetData>
